--- a/Testing/Account Values (Non-Overlapped delayed).xlsx
+++ b/Testing/Account Values (Non-Overlapped delayed).xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B755"/>
+  <dimension ref="A1:B631"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,7 +456,7 @@
         <v>44655</v>
       </c>
       <c r="B2" t="n">
-        <v>103952874.4138438</v>
+        <v>103307907.9186875</v>
       </c>
     </row>
     <row r="3">
@@ -464,7 +464,7 @@
         <v>44656</v>
       </c>
       <c r="B3" t="n">
-        <v>103868566.378035</v>
+        <v>103287490.6537175</v>
       </c>
     </row>
     <row r="4">
@@ -472,7 +472,7 @@
         <v>44657</v>
       </c>
       <c r="B4" t="n">
-        <v>103804641.3085142</v>
+        <v>103295460.6687667</v>
       </c>
     </row>
     <row r="5">
@@ -480,7 +480,7 @@
         <v>44658</v>
       </c>
       <c r="B5" t="n">
-        <v>103904598.3911798</v>
+        <v>103339260.9914164</v>
       </c>
     </row>
     <row r="6">
@@ -488,7 +488,7 @@
         <v>44659</v>
       </c>
       <c r="B6" t="n">
-        <v>103877733.4861094</v>
+        <v>103331970.8690551</v>
       </c>
     </row>
     <row r="7">
@@ -496,7 +496,7 @@
         <v>44662</v>
       </c>
       <c r="B7" t="n">
-        <v>103765127.9262296</v>
+        <v>103240065.706455</v>
       </c>
     </row>
     <row r="8">
@@ -504,7 +504,7 @@
         <v>44663</v>
       </c>
       <c r="B8" t="n">
-        <v>103725743.5365514</v>
+        <v>103146201.4778108</v>
       </c>
     </row>
     <row r="9">
@@ -512,7 +512,7 @@
         <v>44664</v>
       </c>
       <c r="B9" t="n">
-        <v>103832013.1880482</v>
+        <v>103267359.6166259</v>
       </c>
     </row>
     <row r="10">
@@ -520,7 +520,7 @@
         <v>44665</v>
       </c>
       <c r="B10" t="n">
-        <v>103635065.7133895</v>
+        <v>103095239.4729571</v>
       </c>
     </row>
     <row r="11">
@@ -528,7 +528,7 @@
         <v>44669</v>
       </c>
       <c r="B11" t="n">
-        <v>103644199.7371335</v>
+        <v>103181243.1034923</v>
       </c>
     </row>
     <row r="12">
@@ -536,7 +536,7 @@
         <v>44670</v>
       </c>
       <c r="B12" t="n">
-        <v>103931351.1297458</v>
+        <v>103577796.4622166</v>
       </c>
     </row>
     <row r="13">
@@ -544,7 +544,7 @@
         <v>44671</v>
       </c>
       <c r="B13" t="n">
-        <v>103996300.7661832</v>
+        <v>103829795.7226881</v>
       </c>
     </row>
     <row r="14">
@@ -552,7 +552,7 @@
         <v>44672</v>
       </c>
       <c r="B14" t="n">
-        <v>103745911.7525759</v>
+        <v>103554880.544786</v>
       </c>
     </row>
     <row r="15">
@@ -560,7 +560,7 @@
         <v>44673</v>
       </c>
       <c r="B15" t="n">
-        <v>103297422.7426929</v>
+        <v>102929432.2642178</v>
       </c>
     </row>
     <row r="16">
@@ -568,7 +568,7 @@
         <v>44676</v>
       </c>
       <c r="B16" t="n">
-        <v>103457999.2988141</v>
+        <v>103032293.1616402</v>
       </c>
     </row>
     <row r="17">
@@ -576,7 +576,7 @@
         <v>44677</v>
       </c>
       <c r="B17" t="n">
-        <v>103055512.2232407</v>
+        <v>102435316.1597759</v>
       </c>
     </row>
     <row r="18">
@@ -584,7 +584,7 @@
         <v>44678</v>
       </c>
       <c r="B18" t="n">
-        <v>103110597.7862952</v>
+        <v>102539108.8907896</v>
       </c>
     </row>
     <row r="19">
@@ -592,7 +592,7 @@
         <v>44679</v>
       </c>
       <c r="B19" t="n">
-        <v>103432254.3695006</v>
+        <v>103144211.0760133</v>
       </c>
     </row>
     <row r="20">
@@ -600,7 +600,7 @@
         <v>44680</v>
       </c>
       <c r="B20" t="n">
-        <v>102971587.9465503</v>
+        <v>102357623.2466639</v>
       </c>
     </row>
     <row r="21">
@@ -608,7 +608,7 @@
         <v>44683</v>
       </c>
       <c r="B21" t="n">
-        <v>103115645.8738762</v>
+        <v>102483810.1902038</v>
       </c>
     </row>
     <row r="22">
@@ -616,7 +616,7 @@
         <v>44684</v>
       </c>
       <c r="B22" t="n">
-        <v>103175035.3268711</v>
+        <v>102715033.9114603</v>
       </c>
     </row>
     <row r="23">
@@ -624,7 +624,7 @@
         <v>44685</v>
       </c>
       <c r="B23" t="n">
-        <v>103697729.5793557</v>
+        <v>103622916.3002606</v>
       </c>
     </row>
     <row r="24">
@@ -632,7 +632,7 @@
         <v>44686</v>
       </c>
       <c r="B24" t="n">
-        <v>103077392.6111752</v>
+        <v>102809472.7900869</v>
       </c>
     </row>
     <row r="25">
@@ -640,7 +640,7 @@
         <v>44687</v>
       </c>
       <c r="B25" t="n">
-        <v>102911166.8168313</v>
+        <v>102550262.1774848</v>
       </c>
     </row>
     <row r="26">
@@ -648,7 +648,7 @@
         <v>44690</v>
       </c>
       <c r="B26" t="n">
-        <v>102393991.5009682</v>
+        <v>101919923.039198</v>
       </c>
     </row>
     <row r="27">
@@ -656,7 +656,7 @@
         <v>44691</v>
       </c>
       <c r="B27" t="n">
-        <v>102445433.6707228</v>
+        <v>101943108.2105739</v>
       </c>
     </row>
     <row r="28">
@@ -664,7 +664,7 @@
         <v>44692</v>
       </c>
       <c r="B28" t="n">
-        <v>102064792.9086142</v>
+        <v>101460740.6821346</v>
       </c>
     </row>
     <row r="29">
@@ -672,7 +672,7 @@
         <v>44693</v>
       </c>
       <c r="B29" t="n">
-        <v>102258651.1959292</v>
+        <v>101648778.6137721</v>
       </c>
     </row>
     <row r="30">
@@ -680,7 +680,7 @@
         <v>44694</v>
       </c>
       <c r="B30" t="n">
-        <v>102756844.5386036</v>
+        <v>102356898.7643435</v>
       </c>
     </row>
     <row r="31">
@@ -688,7 +688,7 @@
         <v>44697</v>
       </c>
       <c r="B31" t="n">
-        <v>102625478.874109</v>
+        <v>102193858.658384</v>
       </c>
     </row>
     <row r="32">
@@ -696,7 +696,7 @@
         <v>44698</v>
       </c>
       <c r="B32" t="n">
-        <v>103054679.2717834</v>
+        <v>102918074.4780075</v>
       </c>
     </row>
     <row r="33">
@@ -704,7 +704,7 @@
         <v>44699</v>
       </c>
       <c r="B33" t="n">
-        <v>102412671.8004598</v>
+        <v>101937591.2754539</v>
       </c>
     </row>
     <row r="34">
@@ -712,7 +712,7 @@
         <v>44700</v>
       </c>
       <c r="B34" t="n">
-        <v>102595409.2681042</v>
+        <v>101962196.6425679</v>
       </c>
     </row>
     <row r="35">
@@ -720,7 +720,7 @@
         <v>44701</v>
       </c>
       <c r="B35" t="n">
-        <v>102829285.2087879</v>
+        <v>102048934.7142582</v>
       </c>
     </row>
     <row r="36">
@@ -728,7 +728,7 @@
         <v>44704</v>
       </c>
       <c r="B36" t="n">
-        <v>103060263.8140618</v>
+        <v>102313002.2254329</v>
       </c>
     </row>
     <row r="37">
@@ -736,7 +736,7 @@
         <v>44705</v>
       </c>
       <c r="B37" t="n">
-        <v>102843637.370388</v>
+        <v>102205122.9910007</v>
       </c>
     </row>
     <row r="38">
@@ -744,7 +744,7 @@
         <v>44706</v>
       </c>
       <c r="B38" t="n">
-        <v>103098439.4767289</v>
+        <v>102468379.6658699</v>
       </c>
     </row>
     <row r="39">
@@ -752,7 +752,7 @@
         <v>44707</v>
       </c>
       <c r="B39" t="n">
-        <v>103503918.1390468</v>
+        <v>103090385.3414459</v>
       </c>
     </row>
     <row r="40">
@@ -760,7 +760,7 @@
         <v>44708</v>
       </c>
       <c r="B40" t="n">
-        <v>104075309.1818038</v>
+        <v>103898302.7265837</v>
       </c>
     </row>
     <row r="41">
@@ -768,7 +768,7 @@
         <v>44712</v>
       </c>
       <c r="B41" t="n">
-        <v>103755540.6349622</v>
+        <v>103616551.3262201</v>
       </c>
     </row>
     <row r="42">
@@ -776,7 +776,7 @@
         <v>44713</v>
       </c>
       <c r="B42" t="n">
-        <v>103512299.5284842</v>
+        <v>103202543.177411</v>
       </c>
     </row>
     <row r="43">
@@ -784,7 +784,7 @@
         <v>44714</v>
       </c>
       <c r="B43" t="n">
-        <v>103968748.0919115</v>
+        <v>103791070.5049778</v>
       </c>
     </row>
     <row r="44">
@@ -792,7 +792,7 @@
         <v>44715</v>
       </c>
       <c r="B44" t="n">
-        <v>103732652.9173736</v>
+        <v>103409125.2447933</v>
       </c>
     </row>
     <row r="45">
@@ -800,7 +800,7 @@
         <v>44718</v>
       </c>
       <c r="B45" t="n">
-        <v>103729952.884343</v>
+        <v>103408306.8232728</v>
       </c>
     </row>
     <row r="46">
@@ -808,7 +808,7 @@
         <v>44719</v>
       </c>
       <c r="B46" t="n">
-        <v>103908909.2327917</v>
+        <v>103639047.0219767</v>
       </c>
     </row>
     <row r="47">
@@ -816,7 +816,7 @@
         <v>44720</v>
       </c>
       <c r="B47" t="n">
-        <v>103586086.1962956</v>
+        <v>103241241.2049167</v>
       </c>
     </row>
     <row r="48">
@@ -824,7 +824,7 @@
         <v>44721</v>
       </c>
       <c r="B48" t="n">
-        <v>103143133.5862582</v>
+        <v>102695012.9692433</v>
       </c>
     </row>
     <row r="49">
@@ -832,7 +832,7 @@
         <v>44722</v>
       </c>
       <c r="B49" t="n">
-        <v>102635213.9271732</v>
+        <v>101869386.8680395</v>
       </c>
     </row>
     <row r="50">
@@ -840,7 +840,7 @@
         <v>44725</v>
       </c>
       <c r="B50" t="n">
-        <v>101950437.7679579</v>
+        <v>100788817.0146185</v>
       </c>
     </row>
     <row r="51">
@@ -848,7 +848,7 @@
         <v>44726</v>
       </c>
       <c r="B51" t="n">
-        <v>101827896.8455049</v>
+        <v>100789615.9590486</v>
       </c>
     </row>
     <row r="52">
@@ -856,7 +856,7 @@
         <v>44727</v>
       </c>
       <c r="B52" t="n">
-        <v>102148915.0208938</v>
+        <v>101126353.1860847</v>
       </c>
     </row>
     <row r="53">
@@ -864,7 +864,7 @@
         <v>44728</v>
       </c>
       <c r="B53" t="n">
-        <v>101483162.6025175</v>
+        <v>100053659.8717671</v>
       </c>
     </row>
     <row r="54">
@@ -872,7 +872,7 @@
         <v>44729</v>
       </c>
       <c r="B54" t="n">
-        <v>101603768.680137</v>
+        <v>100131895.956746</v>
       </c>
     </row>
     <row r="55">
@@ -880,7 +880,7 @@
         <v>44733</v>
       </c>
       <c r="B55" t="n">
-        <v>102083716.4251352</v>
+        <v>100653100.3944986</v>
       </c>
     </row>
     <row r="56">
@@ -888,7 +888,7 @@
         <v>44734</v>
       </c>
       <c r="B56" t="n">
-        <v>102151834.6674227</v>
+        <v>100711064.4149972</v>
       </c>
     </row>
     <row r="57">
@@ -896,7 +896,7 @@
         <v>44735</v>
       </c>
       <c r="B57" t="n">
-        <v>102593556.7164075</v>
+        <v>100948174.7289402</v>
       </c>
     </row>
     <row r="58">
@@ -904,7 +904,7 @@
         <v>44736</v>
       </c>
       <c r="B58" t="n">
-        <v>103441335.5202422</v>
+        <v>102068193.707075</v>
       </c>
     </row>
     <row r="59">
@@ -912,7 +912,7 @@
         <v>44739</v>
       </c>
       <c r="B59" t="n">
-        <v>103366164.4103929</v>
+        <v>102080694.448386</v>
       </c>
     </row>
     <row r="60">
@@ -920,7 +920,7 @@
         <v>44740</v>
       </c>
       <c r="B60" t="n">
-        <v>102822524.558326</v>
+        <v>101484114.7680281</v>
       </c>
     </row>
     <row r="61">
@@ -928,7 +928,7 @@
         <v>44741</v>
       </c>
       <c r="B61" t="n">
-        <v>102837094.1455074</v>
+        <v>101435353.2982284</v>
       </c>
     </row>
     <row r="62">
@@ -936,7 +936,7 @@
         <v>44742</v>
       </c>
       <c r="B62" t="n">
-        <v>102662527.4114309</v>
+        <v>101160191.258202</v>
       </c>
     </row>
     <row r="63">
@@ -944,7 +944,7 @@
         <v>44743</v>
       </c>
       <c r="B63" t="n">
-        <v>102932759.5603448</v>
+        <v>101449434.121826</v>
       </c>
     </row>
     <row r="64">
@@ -952,7 +952,7 @@
         <v>44747</v>
       </c>
       <c r="B64" t="n">
-        <v>102968141.586226</v>
+        <v>101348050.9940608</v>
       </c>
     </row>
     <row r="65">
@@ -960,7 +960,7 @@
         <v>44748</v>
       </c>
       <c r="B65" t="n">
-        <v>103056131.1423597</v>
+        <v>101469307.6848667</v>
       </c>
     </row>
     <row r="66">
@@ -968,7 +968,7 @@
         <v>44749</v>
       </c>
       <c r="B66" t="n">
-        <v>103488190.2510739</v>
+        <v>101960902.0942043</v>
       </c>
     </row>
     <row r="67">
@@ -976,7 +976,7 @@
         <v>44750</v>
       </c>
       <c r="B67" t="n">
-        <v>103375764.2318539</v>
+        <v>101870108.6820338</v>
       </c>
     </row>
     <row r="68">
@@ -984,7 +984,7 @@
         <v>44753</v>
       </c>
       <c r="B68" t="n">
-        <v>103103278.9791842</v>
+        <v>101569417.759233</v>
       </c>
     </row>
     <row r="69">
@@ -992,7 +992,7 @@
         <v>44754</v>
       </c>
       <c r="B69" t="n">
-        <v>102816857.5075499</v>
+        <v>101362411.7419563</v>
       </c>
     </row>
     <row r="70">
@@ -1000,7 +1000,7 @@
         <v>44755</v>
       </c>
       <c r="B70" t="n">
-        <v>102643021.1399358</v>
+        <v>101108928.2205856</v>
       </c>
     </row>
     <row r="71">
@@ -1008,7 +1008,7 @@
         <v>44756</v>
       </c>
       <c r="B71" t="n">
-        <v>102519644.6047815</v>
+        <v>100940702.0892235</v>
       </c>
     </row>
     <row r="72">
@@ -1016,7 +1016,7 @@
         <v>44757</v>
       </c>
       <c r="B72" t="n">
-        <v>103130503.4578887</v>
+        <v>101636382.7698661</v>
       </c>
     </row>
     <row r="73">
@@ -1024,7 +1024,7 @@
         <v>44760</v>
       </c>
       <c r="B73" t="n">
-        <v>102811062.6595683</v>
+        <v>101338942.3518676</v>
       </c>
     </row>
     <row r="74">
@@ -1032,7 +1032,7 @@
         <v>44761</v>
       </c>
       <c r="B74" t="n">
-        <v>103762855.4835884</v>
+        <v>102505990.7388267</v>
       </c>
     </row>
     <row r="75">
@@ -1040,7 +1040,7 @@
         <v>44762</v>
       </c>
       <c r="B75" t="n">
-        <v>104004970.1925756</v>
+        <v>102672776.1600418</v>
       </c>
     </row>
     <row r="76">
@@ -1048,7 +1048,7 @@
         <v>44763</v>
       </c>
       <c r="B76" t="n">
-        <v>104331531.2783368</v>
+        <v>102940546.9073146</v>
       </c>
     </row>
     <row r="77">
@@ -1056,7 +1056,7 @@
         <v>44764</v>
       </c>
       <c r="B77" t="n">
-        <v>104156242.9310473</v>
+        <v>102915853.5347657</v>
       </c>
     </row>
     <row r="78">
@@ -1064,7 +1064,7 @@
         <v>44767</v>
       </c>
       <c r="B78" t="n">
-        <v>104199663.5346669</v>
+        <v>103018909.1623853</v>
       </c>
     </row>
     <row r="79">
@@ -1072,7 +1072,7 @@
         <v>44768</v>
       </c>
       <c r="B79" t="n">
-        <v>104117606.3954618</v>
+        <v>103001569.9301637</v>
       </c>
     </row>
     <row r="80">
@@ -1080,7 +1080,7 @@
         <v>44769</v>
       </c>
       <c r="B80" t="n">
-        <v>104629880.4003065</v>
+        <v>103818232.9880907</v>
       </c>
     </row>
     <row r="81">
@@ -1088,7 +1088,7 @@
         <v>44770</v>
       </c>
       <c r="B81" t="n">
-        <v>105343570.8146208</v>
+        <v>104390097.0169813</v>
       </c>
     </row>
     <row r="82">
@@ -1096,7 +1096,7 @@
         <v>44771</v>
       </c>
       <c r="B82" t="n">
-        <v>105844128.7745332</v>
+        <v>104832664.6369355</v>
       </c>
     </row>
     <row r="83">
@@ -1104,7 +1104,7 @@
         <v>44774</v>
       </c>
       <c r="B83" t="n">
-        <v>105728977.9365255</v>
+        <v>104649901.3008583</v>
       </c>
     </row>
     <row r="84">
@@ -1112,7 +1112,7 @@
         <v>44775</v>
       </c>
       <c r="B84" t="n">
-        <v>105559577.4632536</v>
+        <v>104563360.0577125</v>
       </c>
     </row>
     <row r="85">
@@ -1120,7 +1120,7 @@
         <v>44776</v>
       </c>
       <c r="B85" t="n">
-        <v>105881900.0018654</v>
+        <v>105055059.9824744</v>
       </c>
     </row>
     <row r="86">
@@ -1128,7 +1128,7 @@
         <v>44777</v>
       </c>
       <c r="B86" t="n">
-        <v>105935885.1859692</v>
+        <v>105139433.9059962</v>
       </c>
     </row>
     <row r="87">
@@ -1136,7 +1136,7 @@
         <v>44778</v>
       </c>
       <c r="B87" t="n">
-        <v>105983702.2620273</v>
+        <v>105233002.2932253</v>
       </c>
     </row>
     <row r="88">
@@ -1144,7 +1144,7 @@
         <v>44781</v>
       </c>
       <c r="B88" t="n">
-        <v>105932517.5595216</v>
+        <v>105213183.58911</v>
       </c>
     </row>
     <row r="89">
@@ -1152,7 +1152,7 @@
         <v>44782</v>
       </c>
       <c r="B89" t="n">
-        <v>105829257.6944343</v>
+        <v>104852228.1285986</v>
       </c>
     </row>
     <row r="90">
@@ -1160,7 +1160,7 @@
         <v>44783</v>
       </c>
       <c r="B90" t="n">
-        <v>106454610.9922654</v>
+        <v>105853317.0746702</v>
       </c>
     </row>
     <row r="91">
@@ -1168,7 +1168,7 @@
         <v>44784</v>
       </c>
       <c r="B91" t="n">
-        <v>106593180.5983238</v>
+        <v>105923980.1781943</v>
       </c>
     </row>
     <row r="92">
@@ -1176,7 +1176,7 @@
         <v>44785</v>
       </c>
       <c r="B92" t="n">
-        <v>107132789.5644392</v>
+        <v>106691267.8825174</v>
       </c>
     </row>
     <row r="93">
@@ -1184,7 +1184,7 @@
         <v>44788</v>
       </c>
       <c r="B93" t="n">
-        <v>107284366.3490299</v>
+        <v>106868618.4770749</v>
       </c>
     </row>
     <row r="94">
@@ -1192,7 +1192,7 @@
         <v>44789</v>
       </c>
       <c r="B94" t="n">
-        <v>107323138.7405567</v>
+        <v>106963348.9635106</v>
       </c>
     </row>
     <row r="95">
@@ -1200,7 +1200,7 @@
         <v>44790</v>
       </c>
       <c r="B95" t="n">
-        <v>107072044.3091554</v>
+        <v>106564177.1877679</v>
       </c>
     </row>
     <row r="96">
@@ -1208,7 +1208,7 @@
         <v>44791</v>
       </c>
       <c r="B96" t="n">
-        <v>107135251.6587421</v>
+        <v>106793147.1005062</v>
       </c>
     </row>
     <row r="97">
@@ -1216,7 +1216,7 @@
         <v>44792</v>
       </c>
       <c r="B97" t="n">
-        <v>106767545.1542042</v>
+        <v>106433351.5716662</v>
       </c>
     </row>
     <row r="98">
@@ -1224,7 +1224,7 @@
         <v>44795</v>
       </c>
       <c r="B98" t="n">
-        <v>106114484.5427236</v>
+        <v>105571408.8811885</v>
       </c>
     </row>
     <row r="99">
@@ -1232,7 +1232,7 @@
         <v>44796</v>
       </c>
       <c r="B99" t="n">
-        <v>106058783.488031</v>
+        <v>105320560.5640137</v>
       </c>
     </row>
     <row r="100">
@@ -1240,7 +1240,7 @@
         <v>44797</v>
       </c>
       <c r="B100" t="n">
-        <v>106181063.2469779</v>
+        <v>105409525.9550826</v>
       </c>
     </row>
     <row r="101">
@@ -1248,7 +1248,7 @@
         <v>44798</v>
       </c>
       <c r="B101" t="n">
-        <v>106718855.4180247</v>
+        <v>106009975.9593356</v>
       </c>
     </row>
     <row r="102">
@@ -1256,7 +1256,7 @@
         <v>44799</v>
       </c>
       <c r="B102" t="n">
-        <v>105652033.4211316</v>
+        <v>104649012.4878467</v>
       </c>
     </row>
     <row r="103">
@@ -1264,7 +1264,7 @@
         <v>44802</v>
       </c>
       <c r="B103" t="n">
-        <v>105470675.6340734</v>
+        <v>104442388.3764705</v>
       </c>
     </row>
     <row r="104">
@@ -1272,7 +1272,7 @@
         <v>44803</v>
       </c>
       <c r="B104" t="n">
-        <v>105225710.3908273</v>
+        <v>104048491.4051396</v>
       </c>
     </row>
     <row r="105">
@@ -1280,7 +1280,7 @@
         <v>44804</v>
       </c>
       <c r="B105" t="n">
-        <v>105079375.9524312</v>
+        <v>103802381.1087867</v>
       </c>
     </row>
     <row r="106">
@@ -1288,7 +1288,7 @@
         <v>44805</v>
       </c>
       <c r="B106" t="n">
-        <v>105075451.8513716</v>
+        <v>103946059.9423684</v>
       </c>
     </row>
     <row r="107">
@@ -1296,7 +1296,7 @@
         <v>44806</v>
       </c>
       <c r="B107" t="n">
-        <v>104840583.0401348</v>
+        <v>103606047.4818387</v>
       </c>
     </row>
     <row r="108">
@@ -1304,7 +1304,7 @@
         <v>44810</v>
       </c>
       <c r="B108" t="n">
-        <v>104735634.4297867</v>
+        <v>103574575.722127</v>
       </c>
     </row>
     <row r="109">
@@ -1312,7 +1312,7 @@
         <v>44811</v>
       </c>
       <c r="B109" t="n">
-        <v>105408736.3332287</v>
+        <v>104498949.5781628</v>
       </c>
     </row>
     <row r="110">
@@ -1320,7 +1320,7 @@
         <v>44812</v>
       </c>
       <c r="B110" t="n">
-        <v>105722685.3844534</v>
+        <v>104886374.6498754</v>
       </c>
     </row>
     <row r="111">
@@ -1328,7 +1328,7 @@
         <v>44813</v>
       </c>
       <c r="B111" t="n">
-        <v>106071278.4299537</v>
+        <v>105330420.9921942</v>
       </c>
     </row>
     <row r="112">
@@ -1336,7 +1336,7 @@
         <v>44816</v>
       </c>
       <c r="B112" t="n">
-        <v>106299621.0497223</v>
+        <v>105708760.3900486</v>
       </c>
     </row>
     <row r="113">
@@ -1344,7 +1344,7 @@
         <v>44817</v>
       </c>
       <c r="B113" t="n">
-        <v>105230008.8327518</v>
+        <v>104191651.603368</v>
       </c>
     </row>
     <row r="114">
@@ -1352,7 +1352,7 @@
         <v>44818</v>
       </c>
       <c r="B114" t="n">
-        <v>105170904.5495351</v>
+        <v>104108840.5870817</v>
       </c>
     </row>
     <row r="115">
@@ -1360,7 +1360,7 @@
         <v>44819</v>
       </c>
       <c r="B115" t="n">
-        <v>105023439.258283</v>
+        <v>104028878.5133223</v>
       </c>
     </row>
     <row r="116">
@@ -1368,7 +1368,7 @@
         <v>44820</v>
       </c>
       <c r="B116" t="n">
-        <v>104764012.5597392</v>
+        <v>103501294.8470947</v>
       </c>
     </row>
     <row r="117">
@@ -1376,7 +1376,7 @@
         <v>44823</v>
       </c>
       <c r="B117" t="n">
-        <v>104983575.8171836</v>
+        <v>103873336.2438505</v>
       </c>
     </row>
     <row r="118">
@@ -1384,7 +1384,7 @@
         <v>44824</v>
       </c>
       <c r="B118" t="n">
-        <v>104658238.8956113</v>
+        <v>103261573.4435352</v>
       </c>
     </row>
     <row r="119">
@@ -1392,7 +1392,7 @@
         <v>44825</v>
       </c>
       <c r="B119" t="n">
-        <v>104223018.1331937</v>
+        <v>102684560.1560944</v>
       </c>
     </row>
     <row r="120">
@@ -1400,7 +1400,7 @@
         <v>44826</v>
       </c>
       <c r="B120" t="n">
-        <v>103937232.4715947</v>
+        <v>102113663.0514737</v>
       </c>
     </row>
     <row r="121">
@@ -1408,7 +1408,7 @@
         <v>44827</v>
       </c>
       <c r="B121" t="n">
-        <v>103608507.8729198</v>
+        <v>101620061.5207405</v>
       </c>
     </row>
     <row r="122">
@@ -1416,7 +1416,7 @@
         <v>44830</v>
       </c>
       <c r="B122" t="n">
-        <v>103357344.8269437</v>
+        <v>101091362.8042112</v>
       </c>
     </row>
     <row r="123">
@@ -1424,7 +1424,7 @@
         <v>44831</v>
       </c>
       <c r="B123" t="n">
-        <v>103305557.0806852</v>
+        <v>101034058.1690757</v>
       </c>
     </row>
     <row r="124">
@@ -1432,7 +1432,7 @@
         <v>44832</v>
       </c>
       <c r="B124" t="n">
-        <v>103856388.3002088</v>
+        <v>101826915.3263106</v>
       </c>
     </row>
     <row r="125">
@@ -1440,7 +1440,7 @@
         <v>44833</v>
       </c>
       <c r="B125" t="n">
-        <v>103532977.7382027</v>
+        <v>101368440.6764525</v>
       </c>
     </row>
     <row r="126">
@@ -1448,7 +1448,7 @@
         <v>44834</v>
       </c>
       <c r="B126" t="n">
-        <v>103247910.9981265</v>
+        <v>100940892.1957605</v>
       </c>
     </row>
     <row r="127">
@@ -1456,7 +1456,7 @@
         <v>44837</v>
       </c>
       <c r="B127" t="n">
-        <v>104061105.5971778</v>
+        <v>102119465.1604749</v>
       </c>
     </row>
     <row r="128">
@@ -1464,7 +1464,7 @@
         <v>44838</v>
       </c>
       <c r="B128" t="n">
-        <v>104920116.9450113</v>
+        <v>103586702.9659603</v>
       </c>
     </row>
     <row r="129">
@@ -1472,7 +1472,7 @@
         <v>44839</v>
       </c>
       <c r="B129" t="n">
-        <v>104832641.5592019</v>
+        <v>103535428.3251789</v>
       </c>
     </row>
     <row r="130">
@@ -1480,7 +1480,7 @@
         <v>44840</v>
       </c>
       <c r="B130" t="n">
-        <v>104568446.605262</v>
+        <v>103154070.8740619</v>
       </c>
     </row>
     <row r="131">
@@ -1488,7 +1488,7 @@
         <v>44841</v>
       </c>
       <c r="B131" t="n">
-        <v>103812389.7371397</v>
+        <v>102209804.8137588</v>
       </c>
     </row>
     <row r="132">
@@ -1496,7 +1496,7 @@
         <v>44844</v>
       </c>
       <c r="B132" t="n">
-        <v>103652179.7625782</v>
+        <v>102124701.2956972</v>
       </c>
     </row>
     <row r="133">
@@ -1504,7 +1504,7 @@
         <v>44845</v>
       </c>
       <c r="B133" t="n">
-        <v>103487735.6562994</v>
+        <v>101927539.3644513</v>
       </c>
     </row>
     <row r="134">
@@ -1512,7 +1512,7 @@
         <v>44846</v>
       </c>
       <c r="B134" t="n">
-        <v>103202027.9859453</v>
+        <v>101559868.2981579</v>
       </c>
     </row>
     <row r="135">
@@ -1520,7 +1520,7 @@
         <v>44847</v>
       </c>
       <c r="B135" t="n">
-        <v>104095445.0080178</v>
+        <v>102620539.4469701</v>
       </c>
     </row>
     <row r="136">
@@ -1528,7 +1528,7 @@
         <v>44848</v>
       </c>
       <c r="B136" t="n">
-        <v>103299793.1573704</v>
+        <v>101715268.9952272</v>
       </c>
     </row>
     <row r="137">
@@ -1536,7 +1536,7 @@
         <v>44851</v>
       </c>
       <c r="B137" t="n">
-        <v>104024627.6688909</v>
+        <v>102775944.8508265</v>
       </c>
     </row>
     <row r="138">
@@ -1544,7 +1544,7 @@
         <v>44852</v>
       </c>
       <c r="B138" t="n">
-        <v>104550220.6482803</v>
+        <v>103513527.9133457</v>
       </c>
     </row>
     <row r="139">
@@ -1552,7 +1552,7 @@
         <v>44853</v>
       </c>
       <c r="B139" t="n">
-        <v>104440638.8588463</v>
+        <v>103071507.9913095</v>
       </c>
     </row>
     <row r="140">
@@ -1560,7 +1560,7 @@
         <v>44854</v>
       </c>
       <c r="B140" t="n">
-        <v>104225619.0052482</v>
+        <v>102528814.1788424</v>
       </c>
     </row>
     <row r="141">
@@ -1568,7 +1568,7 @@
         <v>44855</v>
       </c>
       <c r="B141" t="n">
-        <v>105019384.7031838</v>
+        <v>103658694.5415614</v>
       </c>
     </row>
     <row r="142">
@@ -1576,7 +1576,7 @@
         <v>44858</v>
       </c>
       <c r="B142" t="n">
-        <v>105413402.9765248</v>
+        <v>104475363.9245169</v>
       </c>
     </row>
     <row r="143">
@@ -1584,7 +1584,7 @@
         <v>44859</v>
       </c>
       <c r="B143" t="n">
-        <v>105868066.9229749</v>
+        <v>105336018.4160035</v>
       </c>
     </row>
     <row r="144">
@@ -1592,7 +1592,7 @@
         <v>44860</v>
       </c>
       <c r="B144" t="n">
-        <v>106290257.4793594</v>
+        <v>105433262.3057642</v>
       </c>
     </row>
     <row r="145">
@@ -1600,7 +1600,7 @@
         <v>44861</v>
       </c>
       <c r="B145" t="n">
-        <v>106485371.6832376</v>
+        <v>105781247.04795</v>
       </c>
     </row>
     <row r="146">
@@ -1608,7 +1608,7 @@
         <v>44862</v>
       </c>
       <c r="B146" t="n">
-        <v>107454729.0028103</v>
+        <v>107094056.4649071</v>
       </c>
     </row>
     <row r="147">
@@ -1616,7 +1616,7 @@
         <v>44865</v>
       </c>
       <c r="B147" t="n">
-        <v>107195611.2376589</v>
+        <v>106818046.6126408</v>
       </c>
     </row>
     <row r="148">
@@ -1624,7 +1624,7 @@
         <v>44866</v>
       </c>
       <c r="B148" t="n">
-        <v>107376827.6419528</v>
+        <v>107065224.9542295</v>
       </c>
     </row>
     <row r="149">
@@ -1632,7 +1632,7 @@
         <v>44867</v>
       </c>
       <c r="B149" t="n">
-        <v>106718162.4648297</v>
+        <v>106028100.6891724</v>
       </c>
     </row>
     <row r="150">
@@ -1640,7 +1640,7 @@
         <v>44868</v>
       </c>
       <c r="B150" t="n">
-        <v>106764247.4647624</v>
+        <v>105855065.0941674</v>
       </c>
     </row>
     <row r="151">
@@ -1648,7 +1648,7 @@
         <v>44869</v>
       </c>
       <c r="B151" t="n">
-        <v>107332996.2912159</v>
+        <v>106489643.2441613</v>
       </c>
     </row>
     <row r="152">
@@ -1656,7 +1656,7 @@
         <v>44872</v>
       </c>
       <c r="B152" t="n">
-        <v>107882515.5325949</v>
+        <v>107129858.1157631</v>
       </c>
     </row>
     <row r="153">
@@ -1664,7 +1664,7 @@
         <v>44873</v>
       </c>
       <c r="B153" t="n">
-        <v>108233223.403696</v>
+        <v>107472086.2435482</v>
       </c>
     </row>
     <row r="154">
@@ -1672,7 +1672,7 @@
         <v>44874</v>
       </c>
       <c r="B154" t="n">
-        <v>107620792.8307114</v>
+        <v>107081300.3863806</v>
       </c>
     </row>
     <row r="155">
@@ -1680,7 +1680,7 @@
         <v>44875</v>
       </c>
       <c r="B155" t="n">
-        <v>109624382.991419</v>
+        <v>109744041.8754247</v>
       </c>
     </row>
     <row r="156">
@@ -1688,7 +1688,7 @@
         <v>44876</v>
       </c>
       <c r="B156" t="n">
-        <v>109989204.0256202</v>
+        <v>109906842.4735598</v>
       </c>
     </row>
     <row r="157">
@@ -1696,7 +1696,7 @@
         <v>44879</v>
       </c>
       <c r="B157" t="n">
-        <v>109646492.5771088</v>
+        <v>109431753.8061046</v>
       </c>
     </row>
     <row r="158">
@@ -1704,7 +1704,7 @@
         <v>44880</v>
       </c>
       <c r="B158" t="n">
-        <v>109951544.7472584</v>
+        <v>109852230.3614494</v>
       </c>
     </row>
     <row r="159">
@@ -1712,7 +1712,7 @@
         <v>44881</v>
       </c>
       <c r="B159" t="n">
-        <v>109477392.8544612</v>
+        <v>109485243.0958596</v>
       </c>
     </row>
     <row r="160">
@@ -1720,7 +1720,7 @@
         <v>44882</v>
       </c>
       <c r="B160" t="n">
-        <v>109373897.2944791</v>
+        <v>109291011.1684006</v>
       </c>
     </row>
     <row r="161">
@@ -1728,7 +1728,7 @@
         <v>44883</v>
       </c>
       <c r="B161" t="n">
-        <v>109629016.5928932</v>
+        <v>109684438.3092372</v>
       </c>
     </row>
     <row r="162">
@@ -1736,7 +1736,7 @@
         <v>44886</v>
       </c>
       <c r="B162" t="n">
-        <v>109602979.3170287</v>
+        <v>109592244.0345068</v>
       </c>
     </row>
     <row r="163">
@@ -1744,7 +1744,7 @@
         <v>44887</v>
       </c>
       <c r="B163" t="n">
-        <v>110058081.6500825</v>
+        <v>110228891.1283073</v>
       </c>
     </row>
     <row r="164">
@@ -1752,7 +1752,7 @@
         <v>44888</v>
       </c>
       <c r="B164" t="n">
-        <v>110278313.0300514</v>
+        <v>110524316.0417368</v>
       </c>
     </row>
     <row r="165">
@@ -1760,7 +1760,7 @@
         <v>44890</v>
       </c>
       <c r="B165" t="n">
-        <v>110267171.642336</v>
+        <v>110809165.5930207</v>
       </c>
     </row>
     <row r="166">
@@ -1768,7 +1768,7 @@
         <v>44893</v>
       </c>
       <c r="B166" t="n">
-        <v>109662331.5712473</v>
+        <v>109836123.8356843</v>
       </c>
     </row>
     <row r="167">
@@ -1776,7 +1776,7 @@
         <v>44894</v>
       </c>
       <c r="B167" t="n">
-        <v>109607352.1414758</v>
+        <v>109812744.2160842</v>
       </c>
     </row>
     <row r="168">
@@ -1784,7 +1784,7 @@
         <v>44895</v>
       </c>
       <c r="B168" t="n">
-        <v>110890399.8484095</v>
+        <v>111099650.0863144</v>
       </c>
     </row>
     <row r="169">
@@ -1792,7 +1792,7 @@
         <v>44896</v>
       </c>
       <c r="B169" t="n">
-        <v>111026919.3281609</v>
+        <v>111195584.1030335</v>
       </c>
     </row>
     <row r="170">
@@ -1800,7 +1800,7 @@
         <v>44897</v>
       </c>
       <c r="B170" t="n">
-        <v>110903014.263306</v>
+        <v>111320637.08152</v>
       </c>
     </row>
     <row r="171">
@@ -1808,7 +1808,7 @@
         <v>44900</v>
       </c>
       <c r="B171" t="n">
-        <v>110188721.1576371</v>
+        <v>110507425.8333852</v>
       </c>
     </row>
     <row r="172">
@@ -1816,7 +1816,7 @@
         <v>44901</v>
       </c>
       <c r="B172" t="n">
-        <v>109730074.401433</v>
+        <v>109890676.290753</v>
       </c>
     </row>
     <row r="173">
@@ -1824,7 +1824,7 @@
         <v>44902</v>
       </c>
       <c r="B173" t="n">
-        <v>109747122.286905</v>
+        <v>109921913.5964676</v>
       </c>
     </row>
     <row r="174">
@@ -1832,7 +1832,7 @@
         <v>44903</v>
       </c>
       <c r="B174" t="n">
-        <v>110147931.1988029</v>
+        <v>110348020.4752054</v>
       </c>
     </row>
     <row r="175">
@@ -1840,7 +1840,7 @@
         <v>44904</v>
       </c>
       <c r="B175" t="n">
-        <v>109859054.9376717</v>
+        <v>109908599.902449</v>
       </c>
     </row>
     <row r="176">
@@ -1848,7 +1848,7 @@
         <v>44907</v>
       </c>
       <c r="B176" t="n">
-        <v>110437905.6312422</v>
+        <v>110697545.6805406</v>
       </c>
     </row>
     <row r="177">
@@ -1856,7 +1856,7 @@
         <v>44908</v>
       </c>
       <c r="B177" t="n">
-        <v>110821887.1287306</v>
+        <v>111085542.0057226</v>
       </c>
     </row>
     <row r="178">
@@ -1864,7 +1864,7 @@
         <v>44909</v>
       </c>
       <c r="B178" t="n">
-        <v>110556816.7963559</v>
+        <v>110696800.6106374</v>
       </c>
     </row>
     <row r="179">
@@ -1872,7 +1872,7 @@
         <v>44910</v>
       </c>
       <c r="B179" t="n">
-        <v>109578224.081659</v>
+        <v>109271213.1227921</v>
       </c>
     </row>
     <row r="180">
@@ -1880,7 +1880,7 @@
         <v>44911</v>
       </c>
       <c r="B180" t="n">
-        <v>109362533.5550585</v>
+        <v>108781947.9604269</v>
       </c>
     </row>
     <row r="181">
@@ -1888,7 +1888,7 @@
         <v>44914</v>
       </c>
       <c r="B181" t="n">
-        <v>109101055.0066993</v>
+        <v>108481806.7260656</v>
       </c>
     </row>
     <row r="182">
@@ -1896,7 +1896,7 @@
         <v>44915</v>
       </c>
       <c r="B182" t="n">
-        <v>109147770.7253264</v>
+        <v>108588585.5490329</v>
       </c>
     </row>
     <row r="183">
@@ -1904,7 +1904,7 @@
         <v>44916</v>
       </c>
       <c r="B183" t="n">
-        <v>109698039.5009849</v>
+        <v>109580712.7088961</v>
       </c>
     </row>
     <row r="184">
@@ -1912,7 +1912,7 @@
         <v>44917</v>
       </c>
       <c r="B184" t="n">
-        <v>109047711.6119848</v>
+        <v>108855041.8720215</v>
       </c>
     </row>
     <row r="185">
@@ -1920,7 +1920,7 @@
         <v>44918</v>
       </c>
       <c r="B185" t="n">
-        <v>109114403.0751109</v>
+        <v>109094864.2409591</v>
       </c>
     </row>
     <row r="186">
@@ -1928,7 +1928,7 @@
         <v>44922</v>
       </c>
       <c r="B186" t="n">
-        <v>109006400.0762027</v>
+        <v>109165769.4969988</v>
       </c>
     </row>
     <row r="187">
@@ -1936,7 +1936,7 @@
         <v>44923</v>
       </c>
       <c r="B187" t="n">
-        <v>108677471.0090895</v>
+        <v>108586259.7799244</v>
       </c>
     </row>
     <row r="188">
@@ -1944,7 +1944,7 @@
         <v>44924</v>
       </c>
       <c r="B188" t="n">
-        <v>109318506.3126271</v>
+        <v>109431751.8952699</v>
       </c>
     </row>
     <row r="189">
@@ -1952,7 +1952,7 @@
         <v>44925</v>
       </c>
       <c r="B189" t="n">
-        <v>109182444.3715821</v>
+        <v>109167046.4141882</v>
       </c>
     </row>
     <row r="190">
@@ -1960,7 +1960,7 @@
         <v>44929</v>
       </c>
       <c r="B190" t="n">
-        <v>109130430.5885788</v>
+        <v>109230738.8342321</v>
       </c>
     </row>
     <row r="191">
@@ -1968,7 +1968,7 @@
         <v>44930</v>
       </c>
       <c r="B191" t="n">
-        <v>109627413.214614</v>
+        <v>109860166.0383547</v>
       </c>
     </row>
     <row r="192">
@@ -1976,7 +1976,7 @@
         <v>44931</v>
       </c>
       <c r="B192" t="n">
-        <v>109097024.1569844</v>
+        <v>109104501.3214087</v>
       </c>
     </row>
     <row r="193">
@@ -1984,7 +1984,7 @@
         <v>44932</v>
       </c>
       <c r="B193" t="n">
-        <v>110057042.798187</v>
+        <v>110693716.6601632</v>
       </c>
     </row>
     <row r="194">
@@ -1992,7 +1992,7 @@
         <v>44935</v>
       </c>
       <c r="B194" t="n">
-        <v>110344596.2609186</v>
+        <v>110798581.8778529</v>
       </c>
     </row>
     <row r="195">
@@ -2000,7 +2000,7 @@
         <v>44936</v>
       </c>
       <c r="B195" t="n">
-        <v>110588713.199885</v>
+        <v>111199491.0750147</v>
       </c>
     </row>
     <row r="196">
@@ -2008,7 +2008,7 @@
         <v>44937</v>
       </c>
       <c r="B196" t="n">
-        <v>110898163.6964315</v>
+        <v>111719577.9621727</v>
       </c>
     </row>
     <row r="197">
@@ -2016,7 +2016,7 @@
         <v>44938</v>
       </c>
       <c r="B197" t="n">
-        <v>110948441.9303469</v>
+        <v>111747239.2216548</v>
       </c>
     </row>
     <row r="198">
@@ -2024,7 +2024,7 @@
         <v>44939</v>
       </c>
       <c r="B198" t="n">
-        <v>111059701.5546291</v>
+        <v>111963631.6128788</v>
       </c>
     </row>
     <row r="199">
@@ -2032,7 +2032,7 @@
         <v>44943</v>
       </c>
       <c r="B199" t="n">
-        <v>110987951.8761259</v>
+        <v>111415196.7351823</v>
       </c>
     </row>
     <row r="200">
@@ -2040,7 +2040,7 @@
         <v>44944</v>
       </c>
       <c r="B200" t="n">
-        <v>110617162.4213729</v>
+        <v>110635399.8679924</v>
       </c>
     </row>
     <row r="201">
@@ -2048,7 +2048,7 @@
         <v>44945</v>
       </c>
       <c r="B201" t="n">
-        <v>110247767.5835918</v>
+        <v>109942454.1728225</v>
       </c>
     </row>
     <row r="202">
@@ -2056,7 +2056,7 @@
         <v>44946</v>
       </c>
       <c r="B202" t="n">
-        <v>110957956.019104</v>
+        <v>110875711.6512554</v>
       </c>
     </row>
     <row r="203">
@@ -2064,7 +2064,7 @@
         <v>44949</v>
       </c>
       <c r="B203" t="n">
-        <v>111632460.3706351</v>
+        <v>111569126.3130559</v>
       </c>
     </row>
     <row r="204">
@@ -2072,7 +2072,7 @@
         <v>44950</v>
       </c>
       <c r="B204" t="n">
-        <v>111507642.8329638</v>
+        <v>111549090.4140037</v>
       </c>
     </row>
     <row r="205">
@@ -2080,7 +2080,7 @@
         <v>44951</v>
       </c>
       <c r="B205" t="n">
-        <v>111544104.6710721</v>
+        <v>111634097.1084917</v>
       </c>
     </row>
     <row r="206">
@@ -2088,7 +2088,7 @@
         <v>44952</v>
       </c>
       <c r="B206" t="n">
-        <v>112077179.3937344</v>
+        <v>112107219.2896551</v>
       </c>
     </row>
     <row r="207">
@@ -2096,7 +2096,7 @@
         <v>44953</v>
       </c>
       <c r="B207" t="n">
-        <v>111994914.8916305</v>
+        <v>111958480.1343047</v>
       </c>
     </row>
     <row r="208">
@@ -2104,7 +2104,7 @@
         <v>44956</v>
       </c>
       <c r="B208" t="n">
-        <v>111539323.6703515</v>
+        <v>111386984.9519365</v>
       </c>
     </row>
     <row r="209">
@@ -2112,7 +2112,7 @@
         <v>44957</v>
       </c>
       <c r="B209" t="n">
-        <v>112116616.6180941</v>
+        <v>112426684.6958962</v>
       </c>
     </row>
     <row r="210">
@@ -2120,7 +2120,7 @@
         <v>44958</v>
       </c>
       <c r="B210" t="n">
-        <v>113093953.2823288</v>
+        <v>113354400.1212831</v>
       </c>
     </row>
     <row r="211">
@@ -2128,7 +2128,7 @@
         <v>44959</v>
       </c>
       <c r="B211" t="n">
-        <v>113516099.3813412</v>
+        <v>113609760.8425689</v>
       </c>
     </row>
     <row r="212">
@@ -2136,7 +2136,7 @@
         <v>44960</v>
       </c>
       <c r="B212" t="n">
-        <v>112994062.0144035</v>
+        <v>113083729.9388805</v>
       </c>
     </row>
     <row r="213">
@@ -2144,7 +2144,7 @@
         <v>44963</v>
       </c>
       <c r="B213" t="n">
-        <v>112555345.4613251</v>
+        <v>112567054.317203</v>
       </c>
     </row>
     <row r="214">
@@ -2152,7 +2152,7 @@
         <v>44964</v>
       </c>
       <c r="B214" t="n">
-        <v>113095047.6579618</v>
+        <v>113050412.5674514</v>
       </c>
     </row>
     <row r="215">
@@ -2160,7 +2160,7 @@
         <v>44965</v>
       </c>
       <c r="B215" t="n">
-        <v>112647162.2508695</v>
+        <v>112425387.0667571</v>
       </c>
     </row>
     <row r="216">
@@ -2168,7 +2168,7 @@
         <v>44966</v>
       </c>
       <c r="B216" t="n">
-        <v>112422010.7921486</v>
+        <v>112342458.5719954</v>
       </c>
     </row>
     <row r="217">
@@ -2176,7 +2176,7 @@
         <v>44967</v>
       </c>
       <c r="B217" t="n">
-        <v>112287766.6442986</v>
+        <v>112593274.9317877</v>
       </c>
     </row>
     <row r="218">
@@ -2184,7 +2184,7 @@
         <v>44970</v>
       </c>
       <c r="B218" t="n">
-        <v>112568012.4231931</v>
+        <v>113249378.0581089</v>
       </c>
     </row>
     <row r="219">
@@ -2192,7 +2192,7 @@
         <v>44971</v>
       </c>
       <c r="B219" t="n">
-        <v>112825487.7813714</v>
+        <v>113130297.1730823</v>
       </c>
     </row>
     <row r="220">
@@ -2200,7 +2200,7 @@
         <v>44972</v>
       </c>
       <c r="B220" t="n">
-        <v>113052854.5378983</v>
+        <v>113398430.8271514</v>
       </c>
     </row>
     <row r="221">
@@ -2208,7 +2208,7 @@
         <v>44973</v>
       </c>
       <c r="B221" t="n">
-        <v>112687564.9971309</v>
+        <v>112906298.0934543</v>
       </c>
     </row>
     <row r="222">
@@ -2216,7 +2216,7 @@
         <v>44974</v>
       </c>
       <c r="B222" t="n">
-        <v>112497308.5910022</v>
+        <v>112938386.1674932</v>
       </c>
     </row>
     <row r="223">
@@ -2224,7 +2224,7 @@
         <v>44978</v>
       </c>
       <c r="B223" t="n">
-        <v>111870107.7920287</v>
+        <v>111541947.1543888</v>
       </c>
     </row>
     <row r="224">
@@ -2232,7 +2232,7 @@
         <v>44979</v>
       </c>
       <c r="B224" t="n">
-        <v>112020665.8444935</v>
+        <v>111480840.5966615</v>
       </c>
     </row>
     <row r="225">
@@ -2240,7 +2240,7 @@
         <v>44980</v>
       </c>
       <c r="B225" t="n">
-        <v>112383946.2086537</v>
+        <v>111810702.6165855</v>
       </c>
     </row>
     <row r="226">
@@ -2248,7 +2248,7 @@
         <v>44981</v>
       </c>
       <c r="B226" t="n">
-        <v>112137168.4687676</v>
+        <v>111175107.5639703</v>
       </c>
     </row>
     <row r="227">
@@ -2256,7 +2256,7 @@
         <v>44984</v>
       </c>
       <c r="B227" t="n">
-        <v>112228266.7247902</v>
+        <v>111227893.4693278</v>
       </c>
     </row>
     <row r="228">
@@ -2264,7 +2264,7 @@
         <v>44985</v>
       </c>
       <c r="B228" t="n">
-        <v>112266827.0407836</v>
+        <v>111122853.2856768</v>
       </c>
     </row>
     <row r="229">
@@ -2272,7 +2272,7 @@
         <v>44986</v>
       </c>
       <c r="B229" t="n">
-        <v>112216303.2117711</v>
+        <v>111235081.9558272</v>
       </c>
     </row>
     <row r="230">
@@ -2280,7 +2280,7 @@
         <v>44987</v>
       </c>
       <c r="B230" t="n">
-        <v>112404674.0029572</v>
+        <v>111516017.5529382</v>
       </c>
     </row>
     <row r="231">
@@ -2288,7 +2288,7 @@
         <v>44988</v>
       </c>
       <c r="B231" t="n">
-        <v>112769783.5304774</v>
+        <v>112210729.0575146</v>
       </c>
     </row>
     <row r="232">
@@ -2296,7 +2296,7 @@
         <v>44991</v>
       </c>
       <c r="B232" t="n">
-        <v>112686245.4771349</v>
+        <v>112126328.9607291</v>
       </c>
     </row>
     <row r="233">
@@ -2304,7 +2304,7 @@
         <v>44992</v>
       </c>
       <c r="B233" t="n">
-        <v>112345931.9624453</v>
+        <v>111378235.4208919</v>
       </c>
     </row>
     <row r="234">
@@ -2312,7 +2312,7 @@
         <v>44993</v>
       </c>
       <c r="B234" t="n">
-        <v>112633607.4717233</v>
+        <v>111649750.4518884</v>
       </c>
     </row>
     <row r="235">
@@ -2320,7 +2320,7 @@
         <v>44994</v>
       </c>
       <c r="B235" t="n">
-        <v>112214540.1346848</v>
+        <v>110933430.6046105</v>
       </c>
     </row>
     <row r="236">
@@ -2328,7 +2328,7 @@
         <v>44995</v>
       </c>
       <c r="B236" t="n">
-        <v>111770622.5122446</v>
+        <v>109857089.7014501</v>
       </c>
     </row>
     <row r="237">
@@ -2336,7 +2336,7 @@
         <v>44998</v>
       </c>
       <c r="B237" t="n">
-        <v>111808464.5649712</v>
+        <v>109695746.2306779</v>
       </c>
     </row>
     <row r="238">
@@ -2344,7 +2344,7 @@
         <v>44999</v>
       </c>
       <c r="B238" t="n">
-        <v>112302610.9874146</v>
+        <v>110503913.8273644</v>
       </c>
     </row>
     <row r="239">
@@ -2352,7 +2352,7 @@
         <v>45000</v>
       </c>
       <c r="B239" t="n">
-        <v>112005673.1634854</v>
+        <v>109611619.2754079</v>
       </c>
     </row>
     <row r="240">
@@ -2360,7 +2360,7 @@
         <v>45001</v>
       </c>
       <c r="B240" t="n">
-        <v>112561009.9276475</v>
+        <v>110491786.3517601</v>
       </c>
     </row>
     <row r="241">
@@ -2368,7 +2368,7 @@
         <v>45002</v>
       </c>
       <c r="B241" t="n">
-        <v>112345284.2143379</v>
+        <v>109726820.150061</v>
       </c>
     </row>
     <row r="242">
@@ -2376,7 +2376,7 @@
         <v>45005</v>
       </c>
       <c r="B242" t="n">
-        <v>112541928.1175989</v>
+        <v>110478472.6107889</v>
       </c>
     </row>
     <row r="243">
@@ -2384,7 +2384,7 @@
         <v>45006</v>
       </c>
       <c r="B243" t="n">
-        <v>112649815.2212695</v>
+        <v>111098674.5879106</v>
       </c>
     </row>
     <row r="244">
@@ -2392,7 +2392,7 @@
         <v>45007</v>
       </c>
       <c r="B244" t="n">
-        <v>112356461.7317264</v>
+        <v>110120409.8880858</v>
       </c>
     </row>
     <row r="245">
@@ -2400,7 +2400,7 @@
         <v>45008</v>
       </c>
       <c r="B245" t="n">
-        <v>112686405.2615377</v>
+        <v>110151020.1537739</v>
       </c>
     </row>
     <row r="246">
@@ -2408,7 +2408,7 @@
         <v>45009</v>
       </c>
       <c r="B246" t="n">
-        <v>112592234.6936718</v>
+        <v>110360731.6476346</v>
       </c>
     </row>
     <row r="247">
@@ -2416,7 +2416,7 @@
         <v>45012</v>
       </c>
       <c r="B247" t="n">
-        <v>112609933.7435971</v>
+        <v>110653382.6898274</v>
       </c>
     </row>
     <row r="248">
@@ -2424,7 +2424,7 @@
         <v>45013</v>
       </c>
       <c r="B248" t="n">
-        <v>112501652.2558818</v>
+        <v>110697574.1788121</v>
       </c>
     </row>
     <row r="249">
@@ -2432,7 +2432,7 @@
         <v>45014</v>
       </c>
       <c r="B249" t="n">
-        <v>112946618.4083942</v>
+        <v>111375606.0432608</v>
       </c>
     </row>
     <row r="250">
@@ -2440,7 +2440,7 @@
         <v>45015</v>
       </c>
       <c r="B250" t="n">
-        <v>113158797.4717028</v>
+        <v>111768733.9201854</v>
       </c>
     </row>
     <row r="251">
@@ -2448,7 +2448,7 @@
         <v>45016</v>
       </c>
       <c r="B251" t="n">
-        <v>113512407.3394757</v>
+        <v>112547100.4912852</v>
       </c>
     </row>
     <row r="252">
@@ -2456,7 +2456,7 @@
         <v>45019</v>
       </c>
       <c r="B252" t="n">
-        <v>113494375.6619814</v>
+        <v>112645426.6083231</v>
       </c>
     </row>
     <row r="253">
@@ -2464,7 +2464,7 @@
         <v>45020</v>
       </c>
       <c r="B253" t="n">
-        <v>113244590.0767696</v>
+        <v>111867688.8989578</v>
       </c>
     </row>
     <row r="254">
@@ -2472,7 +2472,7 @@
         <v>45021</v>
       </c>
       <c r="B254" t="n">
-        <v>113000489.2081491</v>
+        <v>111473240.5309383</v>
       </c>
     </row>
     <row r="255">
@@ -2480,7 +2480,7 @@
         <v>45022</v>
       </c>
       <c r="B255" t="n">
-        <v>112974521.599793</v>
+        <v>111418359.5025557</v>
       </c>
     </row>
     <row r="256">
@@ -2488,7 +2488,7 @@
         <v>45026</v>
       </c>
       <c r="B256" t="n">
-        <v>113107080.4011345</v>
+        <v>111770961.9338162</v>
       </c>
     </row>
     <row r="257">
@@ -2496,7 +2496,7 @@
         <v>45027</v>
       </c>
       <c r="B257" t="n">
-        <v>113169619.1215164</v>
+        <v>112029213.8231742</v>
       </c>
     </row>
     <row r="258">
@@ -2504,7 +2504,7 @@
         <v>45028</v>
       </c>
       <c r="B258" t="n">
-        <v>113065785.0011958</v>
+        <v>111907545.0261502</v>
       </c>
     </row>
     <row r="259">
@@ -2512,7 +2512,7 @@
         <v>45029</v>
       </c>
       <c r="B259" t="n">
-        <v>113333174.6444364</v>
+        <v>112340023.7915871</v>
       </c>
     </row>
     <row r="260">
@@ -2520,7 +2520,7 @@
         <v>45030</v>
       </c>
       <c r="B260" t="n">
-        <v>113331894.6754103</v>
+        <v>112225349.8821187</v>
       </c>
     </row>
     <row r="261">
@@ -2528,7 +2528,7 @@
         <v>45033</v>
       </c>
       <c r="B261" t="n">
-        <v>113422398.6972777</v>
+        <v>112570416.0501228</v>
       </c>
     </row>
     <row r="262">
@@ -2536,7 +2536,7 @@
         <v>45034</v>
       </c>
       <c r="B262" t="n">
-        <v>113484738.1632984</v>
+        <v>112627348.4320499</v>
       </c>
     </row>
     <row r="263">
@@ -2544,7 +2544,7 @@
         <v>45035</v>
       </c>
       <c r="B263" t="n">
-        <v>113330381.9916328</v>
+        <v>112373682.4880506</v>
       </c>
     </row>
     <row r="264">
@@ -2552,7 +2552,7 @@
         <v>45036</v>
       </c>
       <c r="B264" t="n">
-        <v>113443932.4595411</v>
+        <v>112239841.6365753</v>
       </c>
     </row>
     <row r="265">
@@ -2560,7 +2560,7 @@
         <v>45037</v>
       </c>
       <c r="B265" t="n">
-        <v>113410981.3991831</v>
+        <v>112265256.3901718</v>
       </c>
     </row>
     <row r="266">
@@ -2568,7 +2568,7 @@
         <v>45040</v>
       </c>
       <c r="B266" t="n">
-        <v>113354655.5706192</v>
+        <v>112391707.5534018</v>
       </c>
     </row>
     <row r="267">
@@ -2576,7 +2576,7 @@
         <v>45041</v>
       </c>
       <c r="B267" t="n">
-        <v>112861447.8899365</v>
+        <v>111630966.0913409</v>
       </c>
     </row>
     <row r="268">
@@ -2584,7 +2584,7 @@
         <v>45042</v>
       </c>
       <c r="B268" t="n">
-        <v>112745483.0512106</v>
+        <v>111116245.5450137</v>
       </c>
     </row>
     <row r="269">
@@ -2592,7 +2592,7 @@
         <v>45043</v>
       </c>
       <c r="B269" t="n">
-        <v>113049860.9036142</v>
+        <v>111972641.8506913</v>
       </c>
     </row>
     <row r="270">
@@ -2600,7 +2600,7 @@
         <v>45044</v>
       </c>
       <c r="B270" t="n">
-        <v>113261987.0145199</v>
+        <v>112477038.7008176</v>
       </c>
     </row>
     <row r="271">
@@ -2608,7 +2608,7 @@
         <v>45047</v>
       </c>
       <c r="B271" t="n">
-        <v>113162386.9183002</v>
+        <v>112598606.7312343</v>
       </c>
     </row>
     <row r="272">
@@ -2616,7 +2616,7 @@
         <v>45048</v>
       </c>
       <c r="B272" t="n">
-        <v>113079986.9766724</v>
+        <v>112240835.2365827</v>
       </c>
     </row>
     <row r="273">
@@ -2624,7 +2624,7 @@
         <v>45049</v>
       </c>
       <c r="B273" t="n">
-        <v>113026218.4525897</v>
+        <v>112010066.3366045</v>
       </c>
     </row>
     <row r="274">
@@ -2632,7 +2632,7 @@
         <v>45050</v>
       </c>
       <c r="B274" t="n">
-        <v>112888549.0752913</v>
+        <v>111506755.5939412</v>
       </c>
     </row>
     <row r="275">
@@ -2640,7 +2640,7 @@
         <v>45051</v>
       </c>
       <c r="B275" t="n">
-        <v>113298217.4217403</v>
+        <v>112110736.2029343</v>
       </c>
     </row>
     <row r="276">
@@ -2648,7 +2648,7 @@
         <v>45054</v>
       </c>
       <c r="B276" t="n">
-        <v>113263980.2910425</v>
+        <v>112098328.2966252</v>
       </c>
     </row>
     <row r="277">
@@ -2656,7 +2656,7 @@
         <v>45055</v>
       </c>
       <c r="B277" t="n">
-        <v>113240677.8198873</v>
+        <v>112000961.0929554</v>
       </c>
     </row>
     <row r="278">
@@ -2664,7 +2664,7 @@
         <v>45056</v>
       </c>
       <c r="B278" t="n">
-        <v>113433401.846044</v>
+        <v>111679695.1881665</v>
       </c>
     </row>
     <row r="279">
@@ -2672,7 +2672,7 @@
         <v>45057</v>
       </c>
       <c r="B279" t="n">
-        <v>113366614.9246781</v>
+        <v>111743898.7661445</v>
       </c>
     </row>
     <row r="280">
@@ -2680,7 +2680,7 @@
         <v>45058</v>
       </c>
       <c r="B280" t="n">
-        <v>113403782.280855</v>
+        <v>111716091.8351301</v>
       </c>
     </row>
     <row r="281">
@@ -2688,7 +2688,7 @@
         <v>45061</v>
       </c>
       <c r="B281" t="n">
-        <v>113637605.8696403</v>
+        <v>112054548.2460701</v>
       </c>
     </row>
     <row r="282">
@@ -2696,7 +2696,7 @@
         <v>45062</v>
       </c>
       <c r="B282" t="n">
-        <v>113552267.0506466</v>
+        <v>111566029.7509263</v>
       </c>
     </row>
     <row r="283">
@@ -2704,7 +2704,7 @@
         <v>45063</v>
       </c>
       <c r="B283" t="n">
-        <v>113880865.0147321</v>
+        <v>112073944.9634409</v>
       </c>
     </row>
     <row r="284">
@@ -2712,7 +2712,7 @@
         <v>45064</v>
       </c>
       <c r="B284" t="n">
-        <v>114320412.6369178</v>
+        <v>112708317.9775561</v>
       </c>
     </row>
     <row r="285">
@@ -2720,7 +2720,7 @@
         <v>45065</v>
       </c>
       <c r="B285" t="n">
-        <v>114262393.7766622</v>
+        <v>112449023.518618</v>
       </c>
     </row>
     <row r="286">
@@ -2728,7 +2728,7 @@
         <v>45068</v>
       </c>
       <c r="B286" t="n">
-        <v>114299105.6790377</v>
+        <v>112620152.9210286</v>
       </c>
     </row>
     <row r="287">
@@ -2736,7 +2736,7 @@
         <v>45069</v>
       </c>
       <c r="B287" t="n">
-        <v>113962668.614117</v>
+        <v>111515043.3115276</v>
       </c>
     </row>
     <row r="288">
@@ -2744,7 +2744,7 @@
         <v>45070</v>
       </c>
       <c r="B288" t="n">
-        <v>113754894.6000846</v>
+        <v>110816384.1064527</v>
       </c>
     </row>
     <row r="289">
@@ -2752,7 +2752,7 @@
         <v>45071</v>
       </c>
       <c r="B289" t="n">
-        <v>114147065.6550424</v>
+        <v>111188351.9501506</v>
       </c>
     </row>
     <row r="290">
@@ -2760,7 +2760,7 @@
         <v>45072</v>
       </c>
       <c r="B290" t="n">
-        <v>114517431.9281948</v>
+        <v>111821985.7668097</v>
       </c>
     </row>
     <row r="291">
@@ -2768,7 +2768,7 @@
         <v>45076</v>
       </c>
       <c r="B291" t="n">
-        <v>114565913.2196247</v>
+        <v>111622687.6669129</v>
       </c>
     </row>
     <row r="292">
@@ -2776,7 +2776,7 @@
         <v>45077</v>
       </c>
       <c r="B292" t="n">
-        <v>114495650.034189</v>
+        <v>111035222.1401019</v>
       </c>
     </row>
     <row r="293">
@@ -2784,7 +2784,7 @@
         <v>45078</v>
       </c>
       <c r="B293" t="n">
-        <v>114612078.6996044</v>
+        <v>111585358.1771667</v>
       </c>
     </row>
     <row r="294">
@@ -2792,7 +2792,7 @@
         <v>45079</v>
       </c>
       <c r="B294" t="n">
-        <v>114736631.2612942</v>
+        <v>112627227.5165067</v>
       </c>
     </row>
     <row r="295">
@@ -2800,7 +2800,7 @@
         <v>45082</v>
       </c>
       <c r="B295" t="n">
-        <v>114636481.9544099</v>
+        <v>112405112.561168</v>
       </c>
     </row>
     <row r="296">
@@ -2808,7 +2808,7 @@
         <v>45083</v>
       </c>
       <c r="B296" t="n">
-        <v>114745296.5940433</v>
+        <v>112667934.2915967</v>
       </c>
     </row>
     <row r="297">
@@ -2816,7 +2816,7 @@
         <v>45084</v>
       </c>
       <c r="B297" t="n">
-        <v>114686734.3602859</v>
+        <v>112882511.6735386</v>
       </c>
     </row>
     <row r="298">
@@ -2824,7 +2824,7 @@
         <v>45085</v>
       </c>
       <c r="B298" t="n">
-        <v>114705992.6632295</v>
+        <v>113025114.6967399</v>
       </c>
     </row>
     <row r="299">
@@ -2832,7 +2832,7 @@
         <v>45086</v>
       </c>
       <c r="B299" t="n">
-        <v>114699708.6329657</v>
+        <v>113049448.5097466</v>
       </c>
     </row>
     <row r="300">
@@ -2840,7 +2840,7 @@
         <v>45089</v>
       </c>
       <c r="B300" t="n">
-        <v>114850314.0995863</v>
+        <v>113635449.5896046</v>
       </c>
     </row>
     <row r="301">
@@ -2848,7 +2848,7 @@
         <v>45090</v>
       </c>
       <c r="B301" t="n">
-        <v>114986167.673183</v>
+        <v>114308002.33396</v>
       </c>
     </row>
     <row r="302">
@@ -2856,7 +2856,7 @@
         <v>45091</v>
       </c>
       <c r="B302" t="n">
-        <v>114972246.5638475</v>
+        <v>114279646.3568587</v>
       </c>
     </row>
     <row r="303">
@@ -2864,7 +2864,7 @@
         <v>45092</v>
       </c>
       <c r="B303" t="n">
-        <v>115158020.9303728</v>
+        <v>115003520.7665468</v>
       </c>
     </row>
     <row r="304">
@@ -2872,7 +2872,7 @@
         <v>45093</v>
       </c>
       <c r="B304" t="n">
-        <v>115154382.0146249</v>
+        <v>114906125.7122232</v>
       </c>
     </row>
     <row r="305">
@@ -2880,7 +2880,7 @@
         <v>45097</v>
       </c>
       <c r="B305" t="n">
-        <v>115102781.4466977</v>
+        <v>114609017.8413132</v>
       </c>
     </row>
     <row r="306">
@@ -2888,7 +2888,7 @@
         <v>45098</v>
       </c>
       <c r="B306" t="n">
-        <v>115029116.3422547</v>
+        <v>114573421.5560781</v>
       </c>
     </row>
     <row r="307">
@@ -2896,7 +2896,7 @@
         <v>45099</v>
       </c>
       <c r="B307" t="n">
-        <v>115052562.3620088</v>
+        <v>114528470.4236788</v>
       </c>
     </row>
     <row r="308">
@@ -2904,7 +2904,7 @@
         <v>45100</v>
       </c>
       <c r="B308" t="n">
-        <v>114995285.7113411</v>
+        <v>114000456.4807767</v>
       </c>
     </row>
     <row r="309">
@@ -2912,7 +2912,7 @@
         <v>45103</v>
       </c>
       <c r="B309" t="n">
-        <v>114984242.2353528</v>
+        <v>114196039.6591326</v>
       </c>
     </row>
     <row r="310">
@@ -2920,7 +2920,7 @@
         <v>45104</v>
       </c>
       <c r="B310" t="n">
-        <v>115112520.4641451</v>
+        <v>114926138.1713389</v>
       </c>
     </row>
     <row r="311">
@@ -2928,7 +2928,7 @@
         <v>45105</v>
       </c>
       <c r="B311" t="n">
-        <v>115129788.6378195</v>
+        <v>114791624.5374017</v>
       </c>
     </row>
     <row r="312">
@@ -2936,7 +2936,7 @@
         <v>45106</v>
       </c>
       <c r="B312" t="n">
-        <v>115249845.4064774</v>
+        <v>115322847.4684757</v>
       </c>
     </row>
     <row r="313">
@@ -2944,7 +2944,7 @@
         <v>45107</v>
       </c>
       <c r="B313" t="n">
-        <v>115337808.26022</v>
+        <v>115894709.9430156</v>
       </c>
     </row>
     <row r="314">
@@ -2952,7 +2952,7 @@
         <v>45110</v>
       </c>
       <c r="B314" t="n">
-        <v>115407149.4091489</v>
+        <v>115680598.5684762</v>
       </c>
     </row>
     <row r="315">
@@ -2960,7 +2960,7 @@
         <v>45112</v>
       </c>
       <c r="B315" t="n">
-        <v>115371959.1633652</v>
+        <v>115333541.629512</v>
       </c>
     </row>
     <row r="316">
@@ -2968,7 +2968,7 @@
         <v>45113</v>
       </c>
       <c r="B316" t="n">
-        <v>115343897.0629704</v>
+        <v>114961385.232678</v>
       </c>
     </row>
     <row r="317">
@@ -2976,7 +2976,7 @@
         <v>45114</v>
       </c>
       <c r="B317" t="n">
-        <v>115352355.0580662</v>
+        <v>114919490.8876696</v>
       </c>
     </row>
     <row r="318">
@@ -2984,7 +2984,7 @@
         <v>45117</v>
       </c>
       <c r="B318" t="n">
-        <v>115459261.0846034</v>
+        <v>115813583.3916962</v>
       </c>
     </row>
     <row r="319">
@@ -2992,7 +2992,7 @@
         <v>45118</v>
       </c>
       <c r="B319" t="n">
-        <v>115590608.5903612</v>
+        <v>116172292.6609403</v>
       </c>
     </row>
     <row r="320">
@@ -3000,7 +3000,7 @@
         <v>45119</v>
       </c>
       <c r="B320" t="n">
-        <v>115607909.8404484</v>
+        <v>116378070.2335355</v>
       </c>
     </row>
     <row r="321">
@@ -3008,7 +3008,7 @@
         <v>45120</v>
       </c>
       <c r="B321" t="n">
-        <v>115729950.8025531</v>
+        <v>116703804.2151814</v>
       </c>
     </row>
     <row r="322">
@@ -3016,7 +3016,7 @@
         <v>45121</v>
       </c>
       <c r="B322" t="n">
-        <v>115709205.5029441</v>
+        <v>116634392.9976783</v>
       </c>
     </row>
     <row r="323">
@@ -3024,7 +3024,7 @@
         <v>45124</v>
       </c>
       <c r="B323" t="n">
-        <v>115761569.5161581</v>
+        <v>116968933.275426</v>
       </c>
     </row>
     <row r="324">
@@ -3032,7 +3032,7 @@
         <v>45125</v>
       </c>
       <c r="B324" t="n">
-        <v>115835931.9043785</v>
+        <v>117166781.7089246</v>
       </c>
     </row>
     <row r="325">
@@ -3040,7 +3040,7 @@
         <v>45126</v>
       </c>
       <c r="B325" t="n">
-        <v>115873735.1379784</v>
+        <v>117071006.8903739</v>
       </c>
     </row>
     <row r="326">
@@ -3048,7 +3048,7 @@
         <v>45127</v>
       </c>
       <c r="B326" t="n">
-        <v>115821416.770879</v>
+        <v>116755449.7368741</v>
       </c>
     </row>
     <row r="327">
@@ -3056,7 +3056,7 @@
         <v>45128</v>
       </c>
       <c r="B327" t="n">
-        <v>115825014.329381</v>
+        <v>116770712.7436559</v>
       </c>
     </row>
     <row r="328">
@@ -3064,7 +3064,7 @@
         <v>45131</v>
       </c>
       <c r="B328" t="n">
-        <v>115848554.9555953</v>
+        <v>116818122.4746294</v>
       </c>
     </row>
     <row r="329">
@@ -3072,7 +3072,7 @@
         <v>45132</v>
       </c>
       <c r="B329" t="n">
-        <v>115867560.955135</v>
+        <v>116933763.1472202</v>
       </c>
     </row>
     <row r="330">
@@ -3080,7 +3080,7 @@
         <v>45133</v>
       </c>
       <c r="B330" t="n">
-        <v>115848713.1681564</v>
+        <v>116457685.7236056</v>
       </c>
     </row>
     <row r="331">
@@ -3088,7 +3088,7 @@
         <v>45134</v>
       </c>
       <c r="B331" t="n">
-        <v>115772643.8157551</v>
+        <v>116089322.3027869</v>
       </c>
     </row>
     <row r="332">
@@ -3096,7 +3096,7 @@
         <v>45135</v>
       </c>
       <c r="B332" t="n">
-        <v>115816453.2975497</v>
+        <v>116296580.5285474</v>
       </c>
     </row>
     <row r="333">
@@ -3104,7 +3104,7 @@
         <v>45138</v>
       </c>
       <c r="B333" t="n">
-        <v>115833881.5322814</v>
+        <v>116508705.1232702</v>
       </c>
     </row>
     <row r="334">
@@ -3112,7 +3112,7 @@
         <v>45139</v>
       </c>
       <c r="B334" t="n">
-        <v>115802289.0735355</v>
+        <v>116434208.6264666</v>
       </c>
     </row>
     <row r="335">
@@ -3120,7 +3120,7 @@
         <v>45140</v>
       </c>
       <c r="B335" t="n">
-        <v>115709398.0663523</v>
+        <v>115880764.0257605</v>
       </c>
     </row>
     <row r="336">
@@ -3128,7 +3128,7 @@
         <v>45141</v>
       </c>
       <c r="B336" t="n">
-        <v>115750033.3284899</v>
+        <v>115450492.5569413</v>
       </c>
     </row>
     <row r="337">
@@ -3136,7 +3136,7 @@
         <v>45142</v>
       </c>
       <c r="B337" t="n">
-        <v>115720171.9378733</v>
+        <v>115328535.0772895</v>
       </c>
     </row>
     <row r="338">
@@ -3144,7 +3144,7 @@
         <v>45145</v>
       </c>
       <c r="B338" t="n">
-        <v>115857262.3992632</v>
+        <v>115941874.2687761</v>
       </c>
     </row>
     <row r="339">
@@ -3152,7 +3152,7 @@
         <v>45146</v>
       </c>
       <c r="B339" t="n">
-        <v>115887924.6627147</v>
+        <v>115825090.4100935</v>
       </c>
     </row>
     <row r="340">
@@ -3160,7 +3160,7 @@
         <v>45147</v>
       </c>
       <c r="B340" t="n">
-        <v>115840247.1982827</v>
+        <v>115882455.5022345</v>
       </c>
     </row>
     <row r="341">
@@ -3168,7 +3168,7 @@
         <v>45148</v>
       </c>
       <c r="B341" t="n">
-        <v>115840836.7360222</v>
+        <v>115897937.226436</v>
       </c>
     </row>
     <row r="342">
@@ -3176,7 +3176,7 @@
         <v>45149</v>
       </c>
       <c r="B342" t="n">
-        <v>115875160.0559883</v>
+        <v>115926782.9500255</v>
       </c>
     </row>
     <row r="343">
@@ -3184,7 +3184,7 @@
         <v>45152</v>
       </c>
       <c r="B343" t="n">
-        <v>115906687.7882361</v>
+        <v>116117204.1332013</v>
       </c>
     </row>
     <row r="344">
@@ -3192,7 +3192,7 @@
         <v>45153</v>
       </c>
       <c r="B344" t="n">
-        <v>115806364.4128206</v>
+        <v>115515944.0470615</v>
       </c>
     </row>
     <row r="345">
@@ -3200,7 +3200,7 @@
         <v>45154</v>
       </c>
       <c r="B345" t="n">
-        <v>115792935.9097967</v>
+        <v>115131323.9605048</v>
       </c>
     </row>
     <row r="346">
@@ -3208,7 +3208,7 @@
         <v>45155</v>
       </c>
       <c r="B346" t="n">
-        <v>115742006.7792197</v>
+        <v>114581308.0291292</v>
       </c>
     </row>
     <row r="347">
@@ -3216,7 +3216,7 @@
         <v>45156</v>
       </c>
       <c r="B347" t="n">
-        <v>115796167.2811446</v>
+        <v>114693087.3479331</v>
       </c>
     </row>
     <row r="348">
@@ -3224,7 +3224,7 @@
         <v>45159</v>
       </c>
       <c r="B348" t="n">
-        <v>115780676.6456263</v>
+        <v>114873571.3862531</v>
       </c>
     </row>
     <row r="349">
@@ -3232,7 +3232,7 @@
         <v>45160</v>
       </c>
       <c r="B349" t="n">
-        <v>115749421.9327202</v>
+        <v>114788423.0493674</v>
       </c>
     </row>
     <row r="350">
@@ -3240,7 +3240,7 @@
         <v>45161</v>
       </c>
       <c r="B350" t="n">
-        <v>115892073.1315686</v>
+        <v>115435180.2394806</v>
       </c>
     </row>
     <row r="351">
@@ -3248,7 +3248,7 @@
         <v>45162</v>
       </c>
       <c r="B351" t="n">
-        <v>115833149.6028521</v>
+        <v>114814590.3912327</v>
       </c>
     </row>
     <row r="352">
@@ -3256,7 +3256,7 @@
         <v>45163</v>
       </c>
       <c r="B352" t="n">
-        <v>115932125.7716524</v>
+        <v>115236499.4377122</v>
       </c>
     </row>
     <row r="353">
@@ -3264,7 +3264,7 @@
         <v>45166</v>
       </c>
       <c r="B353" t="n">
-        <v>115988565.5355616</v>
+        <v>115646007.213208</v>
       </c>
     </row>
     <row r="354">
@@ -3272,7 +3272,7 @@
         <v>45167</v>
       </c>
       <c r="B354" t="n">
-        <v>116085864.9033913</v>
+        <v>116234945.271116</v>
       </c>
     </row>
     <row r="355">
@@ -3280,7 +3280,7 @@
         <v>45168</v>
       </c>
       <c r="B355" t="n">
-        <v>116103256.1342449</v>
+        <v>116383952.7173149</v>
       </c>
     </row>
     <row r="356">
@@ -3288,7 +3288,7 @@
         <v>45169</v>
       </c>
       <c r="B356" t="n">
-        <v>116136048.5142229</v>
+        <v>116273679.7827029</v>
       </c>
     </row>
     <row r="357">
@@ -3296,7 +3296,7 @@
         <v>45170</v>
       </c>
       <c r="B357" t="n">
-        <v>116154087.2393652</v>
+        <v>116645074.5860755</v>
       </c>
     </row>
     <row r="358">
@@ -3304,7 +3304,7 @@
         <v>45174</v>
       </c>
       <c r="B358" t="n">
-        <v>116166727.7954528</v>
+        <v>116050105.1826314</v>
       </c>
     </row>
     <row r="359">
@@ -3312,7 +3312,7 @@
         <v>45175</v>
       </c>
       <c r="B359" t="n">
-        <v>116134217.1865307</v>
+        <v>115900536.0095344</v>
       </c>
     </row>
     <row r="360">
@@ -3320,7 +3320,7 @@
         <v>45176</v>
       </c>
       <c r="B360" t="n">
-        <v>116202437.6180382</v>
+        <v>115762703.7485696</v>
       </c>
     </row>
     <row r="361">
@@ -3328,7 +3328,7 @@
         <v>45177</v>
       </c>
       <c r="B361" t="n">
-        <v>116266735.1984221</v>
+        <v>115621143.9967229</v>
       </c>
     </row>
     <row r="362">
@@ -3336,7 +3336,7 @@
         <v>45180</v>
       </c>
       <c r="B362" t="n">
-        <v>116300338.2714932</v>
+        <v>115681694.8659652</v>
       </c>
     </row>
     <row r="363">
@@ -3344,7 +3344,7 @@
         <v>45181</v>
       </c>
       <c r="B363" t="n">
-        <v>116310721.9620122</v>
+        <v>115431373.4525243</v>
       </c>
     </row>
     <row r="364">
@@ -3352,7 +3352,7 @@
         <v>45182</v>
       </c>
       <c r="B364" t="n">
-        <v>116255193.7183001</v>
+        <v>115332003.7093666</v>
       </c>
     </row>
     <row r="365">
@@ -3360,7 +3360,7 @@
         <v>45183</v>
       </c>
       <c r="B365" t="n">
-        <v>116326881.0388002</v>
+        <v>115804045.4705869</v>
       </c>
     </row>
     <row r="366">
@@ -3368,7 +3368,7 @@
         <v>45184</v>
       </c>
       <c r="B366" t="n">
-        <v>116320416.5928039</v>
+        <v>115204258.5166802</v>
       </c>
     </row>
     <row r="367">
@@ -3376,7 +3376,7 @@
         <v>45187</v>
       </c>
       <c r="B367" t="n">
-        <v>116336049.7141363</v>
+        <v>115314459.1916213</v>
       </c>
     </row>
     <row r="368">
@@ -3384,7 +3384,7 @@
         <v>45188</v>
       </c>
       <c r="B368" t="n">
-        <v>116306659.7144431</v>
+        <v>115090089.8688832</v>
       </c>
     </row>
     <row r="369">
@@ -3392,7 +3392,7 @@
         <v>45189</v>
       </c>
       <c r="B369" t="n">
-        <v>116327922.3531454</v>
+        <v>114912398.7233552</v>
       </c>
     </row>
     <row r="370">
@@ -3400,7 +3400,7 @@
         <v>45190</v>
       </c>
       <c r="B370" t="n">
-        <v>116264052.6280066</v>
+        <v>114054767.3363265</v>
       </c>
     </row>
     <row r="371">
@@ -3408,7 +3408,7 @@
         <v>45191</v>
       </c>
       <c r="B371" t="n">
-        <v>116269918.4923982</v>
+        <v>114047083.7684865</v>
       </c>
     </row>
     <row r="372">
@@ -3416,7 +3416,7 @@
         <v>45194</v>
       </c>
       <c r="B372" t="n">
-        <v>116307910.272502</v>
+        <v>114223181.0443245</v>
       </c>
     </row>
     <row r="373">
@@ -3424,7 +3424,7 @@
         <v>45195</v>
       </c>
       <c r="B373" t="n">
-        <v>116254606.763419</v>
+        <v>113548535.9695299</v>
       </c>
     </row>
     <row r="374">
@@ -3432,7 +3432,7 @@
         <v>45196</v>
       </c>
       <c r="B374" t="n">
-        <v>116245578.03525</v>
+        <v>113673533.747592</v>
       </c>
     </row>
     <row r="375">
@@ -3440,7 +3440,7 @@
         <v>45197</v>
       </c>
       <c r="B375" t="n">
-        <v>116280397.5580961</v>
+        <v>114005786.5648001</v>
       </c>
     </row>
     <row r="376">
@@ -3448,7 +3448,7 @@
         <v>45198</v>
       </c>
       <c r="B376" t="n">
-        <v>116212508.4207375</v>
+        <v>113746571.3130436</v>
       </c>
     </row>
     <row r="377">
@@ -3456,7 +3456,7 @@
         <v>45201</v>
       </c>
       <c r="B377" t="n">
-        <v>116234374.294279</v>
+        <v>113452002.0912343</v>
       </c>
     </row>
     <row r="378">
@@ -3464,7 +3464,7 @@
         <v>45202</v>
       </c>
       <c r="B378" t="n">
-        <v>116201653.1588378</v>
+        <v>112863714.2435767</v>
       </c>
     </row>
     <row r="379">
@@ -3472,7 +3472,7 @@
         <v>45203</v>
       </c>
       <c r="B379" t="n">
-        <v>116244220.4745314</v>
+        <v>113259542.7132875</v>
       </c>
     </row>
     <row r="380">
@@ -3480,7 +3480,7 @@
         <v>45204</v>
       </c>
       <c r="B380" t="n">
-        <v>116290488.8314771</v>
+        <v>113159458.6382436</v>
       </c>
     </row>
     <row r="381">
@@ -3488,7 +3488,7 @@
         <v>45205</v>
       </c>
       <c r="B381" t="n">
-        <v>116321478.0006186</v>
+        <v>113686734.5505059</v>
       </c>
     </row>
     <row r="382">
@@ -3496,7 +3496,7 @@
         <v>45208</v>
       </c>
       <c r="B382" t="n">
-        <v>116336050.6344822</v>
+        <v>114057434.8575697</v>
       </c>
     </row>
     <row r="383">
@@ -3504,7 +3504,7 @@
         <v>45209</v>
       </c>
       <c r="B383" t="n">
-        <v>116336469.1407156</v>
+        <v>114448378.8022208</v>
       </c>
     </row>
     <row r="384">
@@ -3512,7 +3512,7 @@
         <v>45210</v>
       </c>
       <c r="B384" t="n">
-        <v>116336199.3056713</v>
+        <v>114486092.9289779</v>
       </c>
     </row>
     <row r="385">
@@ -3520,7 +3520,7 @@
         <v>45211</v>
       </c>
       <c r="B385" t="n">
-        <v>116226637.2430418</v>
+        <v>113924837.09293</v>
       </c>
     </row>
     <row r="386">
@@ -3528,7 +3528,7 @@
         <v>45212</v>
       </c>
       <c r="B386" t="n">
-        <v>116311885.5816997</v>
+        <v>113745211.9647506</v>
       </c>
     </row>
     <row r="387">
@@ -3536,7 +3536,7 @@
         <v>45215</v>
       </c>
       <c r="B387" t="n">
-        <v>116405475.0032675</v>
+        <v>114392121.9617086</v>
       </c>
     </row>
     <row r="388">
@@ -3544,7 +3544,7 @@
         <v>45216</v>
       </c>
       <c r="B388" t="n">
-        <v>116495921.9965517</v>
+        <v>114564914.5426846</v>
       </c>
     </row>
     <row r="389">
@@ -3552,7 +3552,7 @@
         <v>45217</v>
       </c>
       <c r="B389" t="n">
-        <v>116397845.0384188</v>
+        <v>113677884.5834193</v>
       </c>
     </row>
     <row r="390">
@@ -3560,7 +3560,7 @@
         <v>45218</v>
       </c>
       <c r="B390" t="n">
-        <v>116282679.7392361</v>
+        <v>113141612.5059596</v>
       </c>
     </row>
     <row r="391">
@@ -3568,7 +3568,7 @@
         <v>45219</v>
       </c>
       <c r="B391" t="n">
-        <v>116267580.3240897</v>
+        <v>112542056.1119761</v>
       </c>
     </row>
     <row r="392">
@@ -3576,7 +3576,7 @@
         <v>45222</v>
       </c>
       <c r="B392" t="n">
-        <v>116242475.0878008</v>
+        <v>112296186.6362778</v>
       </c>
     </row>
     <row r="393">
@@ -3584,7 +3584,7 @@
         <v>45223</v>
       </c>
       <c r="B393" t="n">
-        <v>116235416.5843507</v>
+        <v>112299567.3857115</v>
       </c>
     </row>
     <row r="394">
@@ -3592,7 +3592,7 @@
         <v>45224</v>
       </c>
       <c r="B394" t="n">
-        <v>116262560.9291167</v>
+        <v>111752211.6759112</v>
       </c>
     </row>
     <row r="395">
@@ -3600,7 +3600,7 @@
         <v>45225</v>
       </c>
       <c r="B395" t="n">
-        <v>116258890.961893</v>
+        <v>111592588.3532612</v>
       </c>
     </row>
     <row r="396">
@@ -3608,7 +3608,7 @@
         <v>45226</v>
       </c>
       <c r="B396" t="n">
-        <v>116127145.994822</v>
+        <v>111095091.4278376</v>
       </c>
     </row>
     <row r="397">
@@ -3616,7 +3616,7 @@
         <v>45229</v>
       </c>
       <c r="B397" t="n">
-        <v>116207771.1632461</v>
+        <v>111363837.3050167</v>
       </c>
     </row>
     <row r="398">
@@ -3624,7 +3624,7 @@
         <v>45230</v>
       </c>
       <c r="B398" t="n">
-        <v>116328722.5017764</v>
+        <v>111885812.6561746</v>
       </c>
     </row>
     <row r="399">
@@ -3632,7 +3632,7 @@
         <v>45231</v>
       </c>
       <c r="B399" t="n">
-        <v>116408453.7105101</v>
+        <v>112120449.2182115</v>
       </c>
     </row>
     <row r="400">
@@ -3640,7 +3640,7 @@
         <v>45232</v>
       </c>
       <c r="B400" t="n">
-        <v>116598565.8095453</v>
+        <v>113178799.9371935</v>
       </c>
     </row>
     <row r="401">
@@ -3648,7 +3648,7 @@
         <v>45233</v>
       </c>
       <c r="B401" t="n">
-        <v>116885037.0789793</v>
+        <v>114255246.8993763</v>
       </c>
     </row>
     <row r="402">
@@ -3656,7 +3656,7 @@
         <v>45236</v>
       </c>
       <c r="B402" t="n">
-        <v>116817377.5407611</v>
+        <v>114049640.4179256</v>
       </c>
     </row>
     <row r="403">
@@ -3664,7 +3664,7 @@
         <v>45237</v>
       </c>
       <c r="B403" t="n">
-        <v>116915673.8724949</v>
+        <v>114068155.3363667</v>
       </c>
     </row>
     <row r="404">
@@ -3672,7 +3672,7 @@
         <v>45238</v>
       </c>
       <c r="B404" t="n">
-        <v>116850924.6142748</v>
+        <v>114132807.8434658</v>
       </c>
     </row>
     <row r="405">
@@ -3680,7 +3680,7 @@
         <v>45239</v>
       </c>
       <c r="B405" t="n">
-        <v>116729863.7561953</v>
+        <v>113696047.6127885</v>
       </c>
     </row>
     <row r="406">
@@ -3688,7 +3688,7 @@
         <v>45240</v>
       </c>
       <c r="B406" t="n">
-        <v>116845809.6783505</v>
+        <v>114604846.0936009</v>
       </c>
     </row>
     <row r="407">
@@ -3696,7 +3696,7 @@
         <v>45243</v>
       </c>
       <c r="B407" t="n">
-        <v>116908337.1108347</v>
+        <v>114636996.0315689</v>
       </c>
     </row>
     <row r="408">
@@ -3704,7 +3704,7 @@
         <v>45244</v>
       </c>
       <c r="B408" t="n">
-        <v>117201190.4237422</v>
+        <v>115879724.6127085</v>
       </c>
     </row>
     <row r="409">
@@ -3712,7 +3712,7 @@
         <v>45245</v>
       </c>
       <c r="B409" t="n">
-        <v>117288198.9971672</v>
+        <v>116100734.6052571</v>
       </c>
     </row>
     <row r="410">
@@ -3720,7 +3720,7 @@
         <v>45246</v>
       </c>
       <c r="B410" t="n">
-        <v>117311622.4112042</v>
+        <v>116178297.9651081</v>
       </c>
     </row>
     <row r="411">
@@ -3728,7 +3728,7 @@
         <v>45247</v>
       </c>
       <c r="B411" t="n">
-        <v>117354013.8259474</v>
+        <v>116332571.5467501</v>
       </c>
     </row>
     <row r="412">
@@ -3736,7 +3736,7 @@
         <v>45250</v>
       </c>
       <c r="B412" t="n">
-        <v>117496775.291491</v>
+        <v>116647925.3731131</v>
       </c>
     </row>
     <row r="413">
@@ -3744,7 +3744,7 @@
         <v>45251</v>
       </c>
       <c r="B413" t="n">
-        <v>117493734.1621465</v>
+        <v>116732050.5209758</v>
       </c>
     </row>
     <row r="414">
@@ -3752,7 +3752,7 @@
         <v>45252</v>
       </c>
       <c r="B414" t="n">
-        <v>117586299.2962739</v>
+        <v>116974551.615711</v>
       </c>
     </row>
     <row r="415">
@@ -3760,7 +3760,7 @@
         <v>45254</v>
       </c>
       <c r="B415" t="n">
-        <v>117654487.6489661</v>
+        <v>117176637.9535647</v>
       </c>
     </row>
     <row r="416">
@@ -3768,7 +3768,7 @@
         <v>45257</v>
       </c>
       <c r="B416" t="n">
-        <v>117608048.7803161</v>
+        <v>116944303.9330351</v>
       </c>
     </row>
     <row r="417">
@@ -3776,7 +3776,7 @@
         <v>45258</v>
       </c>
       <c r="B417" t="n">
-        <v>117559668.950417</v>
+        <v>116760832.0835934</v>
       </c>
     </row>
     <row r="418">
@@ -3784,7 +3784,7 @@
         <v>45259</v>
       </c>
       <c r="B418" t="n">
-        <v>117794248.0593617</v>
+        <v>116985760.0305113</v>
       </c>
     </row>
     <row r="419">
@@ -3792,7 +3792,7 @@
         <v>45260</v>
       </c>
       <c r="B419" t="n">
-        <v>117861568.3430076</v>
+        <v>117410572.7221003</v>
       </c>
     </row>
     <row r="420">
@@ -3800,7 +3800,7 @@
         <v>45261</v>
       </c>
       <c r="B420" t="n">
-        <v>118040236.6080863</v>
+        <v>117965797.2677138</v>
       </c>
     </row>
     <row r="421">
@@ -3808,7 +3808,7 @@
         <v>45264</v>
       </c>
       <c r="B421" t="n">
-        <v>118127974.7546625</v>
+        <v>118049470.04193</v>
       </c>
     </row>
     <row r="422">
@@ -3816,7 +3816,7 @@
         <v>45265</v>
       </c>
       <c r="B422" t="n">
-        <v>118021828.7028012</v>
+        <v>117537639.2675081</v>
       </c>
     </row>
     <row r="423">
@@ -3824,7 +3824,7 @@
         <v>45266</v>
       </c>
       <c r="B423" t="n">
-        <v>118076733.9125669</v>
+        <v>117514911.9079523</v>
       </c>
     </row>
     <row r="424">
@@ -3832,7 +3832,7 @@
         <v>45267</v>
       </c>
       <c r="B424" t="n">
-        <v>118172605.9140247</v>
+        <v>117696482.1233089</v>
       </c>
     </row>
     <row r="425">
@@ -3840,7 +3840,7 @@
         <v>45268</v>
       </c>
       <c r="B425" t="n">
-        <v>118228370.6872394</v>
+        <v>117851112.6910739</v>
       </c>
     </row>
     <row r="426">
@@ -3848,7 +3848,7 @@
         <v>45271</v>
       </c>
       <c r="B426" t="n">
-        <v>118319620.1122759</v>
+        <v>118628906.9864379</v>
       </c>
     </row>
     <row r="427">
@@ -3856,7 +3856,7 @@
         <v>45272</v>
       </c>
       <c r="B427" t="n">
-        <v>118396469.6141254</v>
+        <v>118923627.3206877</v>
       </c>
     </row>
     <row r="428">
@@ -3864,7 +3864,7 @@
         <v>45273</v>
       </c>
       <c r="B428" t="n">
-        <v>118864809.8197384</v>
+        <v>119863922.0564105</v>
       </c>
     </row>
     <row r="429">
@@ -3872,7 +3872,7 @@
         <v>45274</v>
       </c>
       <c r="B429" t="n">
-        <v>119318799.422973</v>
+        <v>120438867.3996276</v>
       </c>
     </row>
     <row r="430">
@@ -3880,7 +3880,7 @@
         <v>45275</v>
       </c>
       <c r="B430" t="n">
-        <v>119362291.4700116</v>
+        <v>120059848.860432</v>
       </c>
     </row>
     <row r="431">
@@ -3888,7 +3888,7 @@
         <v>45278</v>
       </c>
       <c r="B431" t="n">
-        <v>119342952.2228242</v>
+        <v>120154555.1914535</v>
       </c>
     </row>
     <row r="432">
@@ -3896,7 +3896,7 @@
         <v>45279</v>
       </c>
       <c r="B432" t="n">
-        <v>119536869.9414991</v>
+        <v>120553295.3127771</v>
       </c>
     </row>
     <row r="433">
@@ -3904,7 +3904,7 @@
         <v>45280</v>
       </c>
       <c r="B433" t="n">
-        <v>119267000.1761244</v>
+        <v>119739937.5248373</v>
       </c>
     </row>
     <row r="434">
@@ -3912,7 +3912,7 @@
         <v>45281</v>
       </c>
       <c r="B434" t="n">
-        <v>119532232.4237618</v>
+        <v>120392143.3639305</v>
       </c>
     </row>
     <row r="435">
@@ -3920,7 +3920,7 @@
         <v>45282</v>
       </c>
       <c r="B435" t="n">
-        <v>119555739.449239</v>
+        <v>120800091.9962508</v>
       </c>
     </row>
     <row r="436">
@@ -3928,7 +3928,7 @@
         <v>45286</v>
       </c>
       <c r="B436" t="n">
-        <v>119682878.2307265</v>
+        <v>121114466.1140668</v>
       </c>
     </row>
     <row r="437">
@@ -3936,7 +3936,7 @@
         <v>45287</v>
       </c>
       <c r="B437" t="n">
-        <v>119721404.6479956</v>
+        <v>121221955.3441651</v>
       </c>
     </row>
     <row r="438">
@@ -3944,7 +3944,7 @@
         <v>45288</v>
       </c>
       <c r="B438" t="n">
-        <v>119735166.306801</v>
+        <v>121301311.2557317</v>
       </c>
     </row>
     <row r="439">
@@ -3952,7 +3952,7 @@
         <v>45289</v>
       </c>
       <c r="B439" t="n">
-        <v>119689905.7172246</v>
+        <v>121219163.6000534</v>
       </c>
     </row>
     <row r="440">
@@ -3960,7 +3960,7 @@
         <v>45293</v>
       </c>
       <c r="B440" t="n">
-        <v>119675543.1293493</v>
+        <v>120996249.9132162</v>
       </c>
     </row>
     <row r="441">
@@ -3968,7 +3968,7 @@
         <v>45294</v>
       </c>
       <c r="B441" t="n">
-        <v>119398676.4883487</v>
+        <v>120120386.3154068</v>
       </c>
     </row>
     <row r="442">
@@ -3976,7 +3976,7 @@
         <v>45295</v>
       </c>
       <c r="B442" t="n">
-        <v>119458044.3943737</v>
+        <v>120248911.3767114</v>
       </c>
     </row>
     <row r="443">
@@ -3984,7 +3984,7 @@
         <v>45296</v>
       </c>
       <c r="B443" t="n">
-        <v>119465228.1832377</v>
+        <v>120217878.0710165</v>
       </c>
     </row>
     <row r="444">
@@ -3992,7 +3992,7 @@
         <v>45299</v>
       </c>
       <c r="B444" t="n">
-        <v>119565532.6871055</v>
+        <v>120907900.855972</v>
       </c>
     </row>
     <row r="445">
@@ -4000,7 +4000,7 @@
         <v>45300</v>
       </c>
       <c r="B445" t="n">
-        <v>119502282.921046</v>
+        <v>120956009.1657393</v>
       </c>
     </row>
     <row r="446">
@@ -4008,7 +4008,7 @@
         <v>45301</v>
       </c>
       <c r="B446" t="n">
-        <v>119508286.8451283</v>
+        <v>121044607.1920851</v>
       </c>
     </row>
     <row r="447">
@@ -4016,7 +4016,7 @@
         <v>45302</v>
       </c>
       <c r="B447" t="n">
-        <v>119458091.8394215</v>
+        <v>121042067.974953</v>
       </c>
     </row>
     <row r="448">
@@ -4024,7 +4024,7 @@
         <v>45303</v>
       </c>
       <c r="B448" t="n">
-        <v>119440185.4539945</v>
+        <v>120899694.3802359</v>
       </c>
     </row>
     <row r="449">
@@ -4032,7 +4032,7 @@
         <v>45307</v>
       </c>
       <c r="B449" t="n">
-        <v>119222388.6462109</v>
+        <v>120504602.3760265</v>
       </c>
     </row>
     <row r="450">
@@ -4040,7 +4040,7 @@
         <v>45308</v>
       </c>
       <c r="B450" t="n">
-        <v>119133227.2378762</v>
+        <v>120233307.7848177</v>
       </c>
     </row>
     <row r="451">
@@ -4048,7 +4048,7 @@
         <v>45309</v>
       </c>
       <c r="B451" t="n">
-        <v>119196990.5040623</v>
+        <v>120700359.4119022</v>
       </c>
     </row>
     <row r="452">
@@ -4056,7 +4056,7 @@
         <v>45310</v>
       </c>
       <c r="B452" t="n">
-        <v>119332998.4348408</v>
+        <v>121067797.7293728</v>
       </c>
     </row>
     <row r="453">
@@ -4064,7 +4064,7 @@
         <v>45313</v>
       </c>
       <c r="B453" t="n">
-        <v>119478991.7702835</v>
+        <v>121493514.2602356</v>
       </c>
     </row>
     <row r="454">
@@ -4072,7 +4072,7 @@
         <v>45314</v>
       </c>
       <c r="B454" t="n">
-        <v>119571245.1004622</v>
+        <v>121596629.5269943</v>
       </c>
     </row>
     <row r="455">
@@ -4080,7 +4080,7 @@
         <v>45315</v>
       </c>
       <c r="B455" t="n">
-        <v>119488682.9454485</v>
+        <v>121225398.8012208</v>
       </c>
     </row>
     <row r="456">
@@ -4088,7 +4088,7 @@
         <v>45316</v>
       </c>
       <c r="B456" t="n">
-        <v>119540194.2053144</v>
+        <v>121525380.9174081</v>
       </c>
     </row>
     <row r="457">
@@ -4096,7 +4096,7 @@
         <v>45317</v>
       </c>
       <c r="B457" t="n">
-        <v>119536622.1401314</v>
+        <v>121519495.595049</v>
       </c>
     </row>
     <row r="458">
@@ -4104,7 +4104,7 @@
         <v>45320</v>
       </c>
       <c r="B458" t="n">
-        <v>119593239.7588443</v>
+        <v>121916906.0292364</v>
       </c>
     </row>
     <row r="459">
@@ -4112,7 +4112,7 @@
         <v>45321</v>
       </c>
       <c r="B459" t="n">
-        <v>119615417.185157</v>
+        <v>122030069.9969632</v>
       </c>
     </row>
     <row r="460">
@@ -4120,7 +4120,7 @@
         <v>45322</v>
       </c>
       <c r="B460" t="n">
-        <v>119450067.3491264</v>
+        <v>121502868.6711221</v>
       </c>
     </row>
     <row r="461">
@@ -4128,7 +4128,7 @@
         <v>45323</v>
       </c>
       <c r="B461" t="n">
-        <v>119509067.490809</v>
+        <v>122360622.4334205</v>
       </c>
     </row>
     <row r="462">
@@ -4136,7 +4136,7 @@
         <v>45324</v>
       </c>
       <c r="B462" t="n">
-        <v>119458840.7702617</v>
+        <v>122587982.8100109</v>
       </c>
     </row>
     <row r="463">
@@ -4144,7 +4144,7 @@
         <v>45327</v>
       </c>
       <c r="B463" t="n">
-        <v>119380180.5475412</v>
+        <v>122565094.1035174</v>
       </c>
     </row>
     <row r="464">
@@ -4152,7 +4152,7 @@
         <v>45328</v>
       </c>
       <c r="B464" t="n">
-        <v>119469930.1427041</v>
+        <v>122808902.9999418</v>
       </c>
     </row>
     <row r="465">
@@ -4160,7 +4160,7 @@
         <v>45329</v>
       </c>
       <c r="B465" t="n">
-        <v>119625110.5058075</v>
+        <v>123007081.0709175</v>
       </c>
     </row>
     <row r="466">
@@ -4168,7 +4168,7 @@
         <v>45330</v>
       </c>
       <c r="B466" t="n">
-        <v>119614630.5980848</v>
+        <v>123031477.781869</v>
       </c>
     </row>
     <row r="467">
@@ -4176,7 +4176,7 @@
         <v>45331</v>
       </c>
       <c r="B467" t="n">
-        <v>119730883.9038973</v>
+        <v>123207246.6386111</v>
       </c>
     </row>
     <row r="468">
@@ -4184,7 +4184,7 @@
         <v>45334</v>
       </c>
       <c r="B468" t="n">
-        <v>119917411.5557333</v>
+        <v>123250616.6408262</v>
       </c>
     </row>
     <row r="469">
@@ -4192,7 +4192,7 @@
         <v>45335</v>
       </c>
       <c r="B469" t="n">
-        <v>119649959.4436095</v>
+        <v>122518200.2028347</v>
       </c>
     </row>
     <row r="470">
@@ -4200,7 +4200,7 @@
         <v>45336</v>
       </c>
       <c r="B470" t="n">
-        <v>119902285.9125426</v>
+        <v>123077633.5625833</v>
       </c>
     </row>
     <row r="471">
@@ -4208,7 +4208,7 @@
         <v>45337</v>
       </c>
       <c r="B471" t="n">
-        <v>120028740.4975488</v>
+        <v>123319807.3435283</v>
       </c>
     </row>
     <row r="472">
@@ -4216,7 +4216,7 @@
         <v>45338</v>
       </c>
       <c r="B472" t="n">
-        <v>119966937.1032878</v>
+        <v>123156795.0481601</v>
       </c>
     </row>
     <row r="473">
@@ -4224,7 +4224,7 @@
         <v>45342</v>
       </c>
       <c r="B473" t="n">
-        <v>119872337.8087347</v>
+        <v>122924216.1483689</v>
       </c>
     </row>
     <row r="474">
@@ -4232,7 +4232,7 @@
         <v>45343</v>
       </c>
       <c r="B474" t="n">
-        <v>119898203.0141861</v>
+        <v>122944496.1053539</v>
       </c>
     </row>
     <row r="475">
@@ -4240,7 +4240,7 @@
         <v>45344</v>
       </c>
       <c r="B475" t="n">
-        <v>119964810.8767849</v>
+        <v>123765348.0121788</v>
       </c>
     </row>
     <row r="476">
@@ -4248,7 +4248,7 @@
         <v>45345</v>
       </c>
       <c r="B476" t="n">
-        <v>120004896.0584952</v>
+        <v>123850694.1687925</v>
       </c>
     </row>
     <row r="477">
@@ -4256,7 +4256,7 @@
         <v>45348</v>
       </c>
       <c r="B477" t="n">
-        <v>119982854.7455674</v>
+        <v>123550172.1913025</v>
       </c>
     </row>
     <row r="478">
@@ -4264,7 +4264,7 @@
         <v>45349</v>
       </c>
       <c r="B478" t="n">
-        <v>120060428.1980507</v>
+        <v>123473175.8027066</v>
       </c>
     </row>
     <row r="479">
@@ -4272,7 +4272,7 @@
         <v>45350</v>
       </c>
       <c r="B479" t="n">
-        <v>120093349.2859946</v>
+        <v>123376843.7725026</v>
       </c>
     </row>
     <row r="480">
@@ -4280,7 +4280,7 @@
         <v>45351</v>
       </c>
       <c r="B480" t="n">
-        <v>120123144.2736977</v>
+        <v>123566523.2214889</v>
       </c>
     </row>
     <row r="481">
@@ -4288,7 +4288,7 @@
         <v>45352</v>
       </c>
       <c r="B481" t="n">
-        <v>120184575.6262839</v>
+        <v>123956205.4889353</v>
       </c>
     </row>
     <row r="482">
@@ -4296,7 +4296,7 @@
         <v>45355</v>
       </c>
       <c r="B482" t="n">
-        <v>120310491.1539843</v>
+        <v>124208544.4375456</v>
       </c>
     </row>
     <row r="483">
@@ -4304,7 +4304,7 @@
         <v>45356</v>
       </c>
       <c r="B483" t="n">
-        <v>120325781.8830017</v>
+        <v>123698519.9995071</v>
       </c>
     </row>
     <row r="484">
@@ -4312,7 +4312,7 @@
         <v>45357</v>
       </c>
       <c r="B484" t="n">
-        <v>120349117.1661368</v>
+        <v>124080285.4867065</v>
       </c>
     </row>
     <row r="485">
@@ -4320,7 +4320,7 @@
         <v>45358</v>
       </c>
       <c r="B485" t="n">
-        <v>120518324.4327046</v>
+        <v>124615307.0468311</v>
       </c>
     </row>
     <row r="486">
@@ -4328,7 +4328,7 @@
         <v>45359</v>
       </c>
       <c r="B486" t="n">
-        <v>120502189.718003</v>
+        <v>124404455.5311678</v>
       </c>
     </row>
     <row r="487">
@@ -4336,7 +4336,7 @@
         <v>45362</v>
       </c>
       <c r="B487" t="n">
-        <v>120549034.3667967</v>
+        <v>124379619.2327037</v>
       </c>
     </row>
     <row r="488">
@@ -4344,7 +4344,7 @@
         <v>45363</v>
       </c>
       <c r="B488" t="n">
-        <v>120535658.9937602</v>
+        <v>124838662.7070604</v>
       </c>
     </row>
     <row r="489">
@@ -4352,7 +4352,7 @@
         <v>45364</v>
       </c>
       <c r="B489" t="n">
-        <v>120524116.3302281</v>
+        <v>124798835.46166</v>
       </c>
     </row>
     <row r="490">
@@ -4360,7 +4360,7 @@
         <v>45365</v>
       </c>
       <c r="B490" t="n">
-        <v>120274534.0411224</v>
+        <v>124331218.4241647</v>
       </c>
     </row>
     <row r="491">
@@ -4368,7 +4368,7 @@
         <v>45366</v>
       </c>
       <c r="B491" t="n">
-        <v>120264077.8514194</v>
+        <v>124151826.3492753</v>
       </c>
     </row>
     <row r="492">
@@ -4376,7 +4376,7 @@
         <v>45369</v>
       </c>
       <c r="B492" t="n">
-        <v>120268315.3642476</v>
+        <v>124361630.1493049</v>
       </c>
     </row>
     <row r="493">
@@ -4384,7 +4384,7 @@
         <v>45370</v>
       </c>
       <c r="B493" t="n">
-        <v>120312015.313659</v>
+        <v>124595337.9072172</v>
       </c>
     </row>
     <row r="494">
@@ -4392,7 +4392,7 @@
         <v>45371</v>
       </c>
       <c r="B494" t="n">
-        <v>120598156.8321413</v>
+        <v>125016726.4430032</v>
       </c>
     </row>
     <row r="495">
@@ -4400,7 +4400,7 @@
         <v>45372</v>
       </c>
       <c r="B495" t="n">
-        <v>120790172.9233883</v>
+        <v>125479876.0254255</v>
       </c>
     </row>
     <row r="496">
@@ -4408,7 +4408,7 @@
         <v>45373</v>
       </c>
       <c r="B496" t="n">
-        <v>120624675.5023392</v>
+        <v>125255316.4848114</v>
       </c>
     </row>
     <row r="497">
@@ -4416,7 +4416,7 @@
         <v>45376</v>
       </c>
       <c r="B497" t="n">
-        <v>120521093.1447427</v>
+        <v>125024834.8493677</v>
       </c>
     </row>
     <row r="498">
@@ -4424,7 +4424,7 @@
         <v>45377</v>
       </c>
       <c r="B498" t="n">
-        <v>120498326.3390479</v>
+        <v>124963334.0990849</v>
       </c>
     </row>
     <row r="499">
@@ -4432,7 +4432,7 @@
         <v>45378</v>
       </c>
       <c r="B499" t="n">
-        <v>120966787.8652111</v>
+        <v>125700299.473954</v>
       </c>
     </row>
     <row r="500">
@@ -4440,7 +4440,7 @@
         <v>45379</v>
       </c>
       <c r="B500" t="n">
-        <v>121074913.0881886</v>
+        <v>125896675.9279517</v>
       </c>
     </row>
     <row r="501">
@@ -4448,7 +4448,7 @@
         <v>45383</v>
       </c>
       <c r="B501" t="n">
-        <v>120948609.0879369</v>
+        <v>125509885.9974196</v>
       </c>
     </row>
     <row r="502">
@@ -4456,7 +4456,7 @@
         <v>45384</v>
       </c>
       <c r="B502" t="n">
-        <v>120602479.7066228</v>
+        <v>124934271.0738123</v>
       </c>
     </row>
     <row r="503">
@@ -4464,7 +4464,7 @@
         <v>45385</v>
       </c>
       <c r="B503" t="n">
-        <v>120591740.6473528</v>
+        <v>124994674.5595098</v>
       </c>
     </row>
     <row r="504">
@@ -4472,7 +4472,7 @@
         <v>45386</v>
       </c>
       <c r="B504" t="n">
-        <v>120488596.7100681</v>
+        <v>124545297.8134588</v>
       </c>
     </row>
     <row r="505">
@@ -4480,7 +4480,7 @@
         <v>45387</v>
       </c>
       <c r="B505" t="n">
-        <v>120661133.6997097</v>
+        <v>124974240.346371</v>
       </c>
     </row>
     <row r="506">
@@ -4488,7 +4488,7 @@
         <v>45390</v>
       </c>
       <c r="B506" t="n">
-        <v>120874713.8912187</v>
+        <v>125125285.4578655</v>
       </c>
     </row>
     <row r="507">
@@ -4496,7 +4496,7 @@
         <v>45391</v>
       </c>
       <c r="B507" t="n">
-        <v>121091345.4367417</v>
+        <v>125583338.9935092</v>
       </c>
     </row>
     <row r="508">
@@ -4504,7 +4504,7 @@
         <v>45392</v>
       </c>
       <c r="B508" t="n">
-        <v>120708125.2894005</v>
+        <v>124752303.4720439</v>
       </c>
     </row>
     <row r="509">
@@ -4512,7 +4512,7 @@
         <v>45393</v>
       </c>
       <c r="B509" t="n">
-        <v>120617835.1807571</v>
+        <v>124679204.4718606</v>
       </c>
     </row>
     <row r="510">
@@ -4520,7 +4520,7 @@
         <v>45394</v>
       </c>
       <c r="B510" t="n">
-        <v>120690047.2079539</v>
+        <v>123937049.8671196</v>
       </c>
     </row>
     <row r="511">
@@ -4528,7 +4528,7 @@
         <v>45397</v>
       </c>
       <c r="B511" t="n">
-        <v>120527722.5759788</v>
+        <v>123618624.5378387</v>
       </c>
     </row>
     <row r="512">
@@ -4536,7 +4536,7 @@
         <v>45398</v>
       </c>
       <c r="B512" t="n">
-        <v>120523457.6948321</v>
+        <v>123393653.2340364</v>
       </c>
     </row>
     <row r="513">
@@ -4544,7 +4544,7 @@
         <v>45399</v>
       </c>
       <c r="B513" t="n">
-        <v>120615905.2543001</v>
+        <v>123111392.9519055</v>
       </c>
     </row>
     <row r="514">
@@ -4552,7 +4552,7 @@
         <v>45400</v>
       </c>
       <c r="B514" t="n">
-        <v>120617546.122117</v>
+        <v>123046197.7021392</v>
       </c>
     </row>
     <row r="515">
@@ -4560,7 +4560,7 @@
         <v>45401</v>
       </c>
       <c r="B515" t="n">
-        <v>120763161.1714229</v>
+        <v>123018542.3210211</v>
       </c>
     </row>
     <row r="516">
@@ -4568,7 +4568,7 @@
         <v>45404</v>
       </c>
       <c r="B516" t="n">
-        <v>120869684.5822335</v>
+        <v>123375235.5766537</v>
       </c>
     </row>
     <row r="517">
@@ -4576,7 +4576,7 @@
         <v>45405</v>
       </c>
       <c r="B517" t="n">
-        <v>121300843.1545641</v>
+        <v>124026015.409054</v>
       </c>
     </row>
     <row r="518">
@@ -4584,7 +4584,7 @@
         <v>45406</v>
       </c>
       <c r="B518" t="n">
-        <v>121453886.5790386</v>
+        <v>123853363.2019712</v>
       </c>
     </row>
     <row r="519">
@@ -4592,7 +4592,7 @@
         <v>45407</v>
       </c>
       <c r="B519" t="n">
-        <v>121267211.5355575</v>
+        <v>123707023.0079331</v>
       </c>
     </row>
     <row r="520">
@@ -4600,7 +4600,7 @@
         <v>45408</v>
       </c>
       <c r="B520" t="n">
-        <v>121306243.7413816</v>
+        <v>124025381.6914541</v>
       </c>
     </row>
     <row r="521">
@@ -4608,7 +4608,7 @@
         <v>45411</v>
       </c>
       <c r="B521" t="n">
-        <v>121486386.4926569</v>
+        <v>124290903.9545929</v>
       </c>
     </row>
     <row r="522">
@@ -4616,7 +4616,7 @@
         <v>45412</v>
       </c>
       <c r="B522" t="n">
-        <v>121227832.1738818</v>
+        <v>123564985.9537189</v>
       </c>
     </row>
     <row r="523">
@@ -4624,7 +4624,7 @@
         <v>45413</v>
       </c>
       <c r="B523" t="n">
-        <v>121543901.30008</v>
+        <v>123441011.2274083</v>
       </c>
     </row>
     <row r="524">
@@ -4632,7 +4632,7 @@
         <v>45414</v>
       </c>
       <c r="B524" t="n">
-        <v>121655930.711275</v>
+        <v>123667984.9856612</v>
       </c>
     </row>
     <row r="525">
@@ -4640,7 +4640,7 @@
         <v>45415</v>
       </c>
       <c r="B525" t="n">
-        <v>121830757.4174906</v>
+        <v>124115774.3984783</v>
       </c>
     </row>
     <row r="526">
@@ -4648,7 +4648,7 @@
         <v>45418</v>
       </c>
       <c r="B526" t="n">
-        <v>122020783.4805084</v>
+        <v>124424084.5158602</v>
       </c>
     </row>
     <row r="527">
@@ -4656,7 +4656,7 @@
         <v>45419</v>
       </c>
       <c r="B527" t="n">
-        <v>122247969.8530574</v>
+        <v>124872907.2029426</v>
       </c>
     </row>
     <row r="528">
@@ -4664,7 +4664,7 @@
         <v>45420</v>
       </c>
       <c r="B528" t="n">
-        <v>122347091.1132518</v>
+        <v>124879486.8948334</v>
       </c>
     </row>
     <row r="529">
@@ -4672,7 +4672,7 @@
         <v>45421</v>
       </c>
       <c r="B529" t="n">
-        <v>122455293.5669661</v>
+        <v>125425377.1264953</v>
       </c>
     </row>
     <row r="530">
@@ -4680,7 +4680,7 @@
         <v>45422</v>
       </c>
       <c r="B530" t="n">
-        <v>122485296.4641964</v>
+        <v>125713274.5978911</v>
       </c>
     </row>
     <row r="531">
@@ -4688,7 +4688,7 @@
         <v>45425</v>
       </c>
       <c r="B531" t="n">
-        <v>122465599.6021131</v>
+        <v>125514158.3535141</v>
       </c>
     </row>
     <row r="532">
@@ -4696,7 +4696,7 @@
         <v>45426</v>
       </c>
       <c r="B532" t="n">
-        <v>122657640.1887035</v>
+        <v>125888320.184868</v>
       </c>
     </row>
     <row r="533">
@@ -4704,7 +4704,7 @@
         <v>45427</v>
       </c>
       <c r="B533" t="n">
-        <v>122869502.5339543</v>
+        <v>126421846.9119617</v>
       </c>
     </row>
     <row r="534">
@@ -4712,7 +4712,7 @@
         <v>45428</v>
       </c>
       <c r="B534" t="n">
-        <v>122838962.6078522</v>
+        <v>126175434.1000053</v>
       </c>
     </row>
     <row r="535">
@@ -4720,7 +4720,7 @@
         <v>45429</v>
       </c>
       <c r="B535" t="n">
-        <v>123036242.5703841</v>
+        <v>126306813.6991972</v>
       </c>
     </row>
     <row r="536">
@@ -4728,7 +4728,7 @@
         <v>45432</v>
       </c>
       <c r="B536" t="n">
-        <v>122976021.1864373</v>
+        <v>126220127.475933</v>
       </c>
     </row>
     <row r="537">
@@ -4736,7 +4736,7 @@
         <v>45433</v>
       </c>
       <c r="B537" t="n">
-        <v>123005212.5670751</v>
+        <v>126078579.3439738</v>
       </c>
     </row>
     <row r="538">
@@ -4744,7 +4744,7 @@
         <v>45434</v>
       </c>
       <c r="B538" t="n">
-        <v>123346171.6938688</v>
+        <v>126326878.3249305</v>
       </c>
     </row>
     <row r="539">
@@ -4752,7 +4752,7 @@
         <v>45435</v>
       </c>
       <c r="B539" t="n">
-        <v>122828638.1109581</v>
+        <v>125475452.1130006</v>
       </c>
     </row>
     <row r="540">
@@ -4760,7 +4760,7 @@
         <v>45436</v>
       </c>
       <c r="B540" t="n">
-        <v>123165371.3262228</v>
+        <v>125866995.1199441</v>
       </c>
     </row>
     <row r="541">
@@ -4768,7 +4768,7 @@
         <v>45440</v>
       </c>
       <c r="B541" t="n">
-        <v>123038056.2303408</v>
+        <v>125131295.0302252</v>
       </c>
     </row>
     <row r="542">
@@ -4776,7 +4776,7 @@
         <v>45441</v>
       </c>
       <c r="B542" t="n">
-        <v>122704787.0665326</v>
+        <v>124388799.2109689</v>
       </c>
     </row>
     <row r="543">
@@ -4784,7 +4784,7 @@
         <v>45442</v>
       </c>
       <c r="B543" t="n">
-        <v>122758813.12893</v>
+        <v>124532833.3547625</v>
       </c>
     </row>
     <row r="544">
@@ -4792,7 +4792,7 @@
         <v>45443</v>
       </c>
       <c r="B544" t="n">
-        <v>122925936.8008576</v>
+        <v>125118873.3295747</v>
       </c>
     </row>
     <row r="545">
@@ -4800,7 +4800,7 @@
         <v>45446</v>
       </c>
       <c r="B545" t="n">
-        <v>122939380.0823212</v>
+        <v>124959414.4219999</v>
       </c>
     </row>
     <row r="546">
@@ -4808,7 +4808,7 @@
         <v>45447</v>
       </c>
       <c r="B546" t="n">
-        <v>122887950.268327</v>
+        <v>124619011.8645191</v>
       </c>
     </row>
     <row r="547">
@@ -4816,7 +4816,7 @@
         <v>45448</v>
       </c>
       <c r="B547" t="n">
-        <v>123051028.7438807</v>
+        <v>125201532.150987</v>
       </c>
     </row>
     <row r="548">
@@ -4824,7 +4824,7 @@
         <v>45449</v>
       </c>
       <c r="B548" t="n">
-        <v>123088162.7039886</v>
+        <v>124945910.4716891</v>
       </c>
     </row>
     <row r="549">
@@ -4832,7 +4832,7 @@
         <v>45450</v>
       </c>
       <c r="B549" t="n">
-        <v>122993558.7238334</v>
+        <v>124717737.4812128</v>
       </c>
     </row>
     <row r="550">
@@ -4840,7 +4840,7 @@
         <v>45453</v>
       </c>
       <c r="B550" t="n">
-        <v>122970966.334771</v>
+        <v>124869710.6688414</v>
       </c>
     </row>
     <row r="551">
@@ -4848,7 +4848,7 @@
         <v>45454</v>
       </c>
       <c r="B551" t="n">
-        <v>122878469.4478206</v>
+        <v>124583743.7194485</v>
       </c>
     </row>
     <row r="552">
@@ -4856,7 +4856,7 @@
         <v>45455</v>
       </c>
       <c r="B552" t="n">
-        <v>122999789.7442179</v>
+        <v>125332502.4300436</v>
       </c>
     </row>
     <row r="553">
@@ -4864,7 +4864,7 @@
         <v>45456</v>
       </c>
       <c r="B553" t="n">
-        <v>122883770.9840647</v>
+        <v>125188235.2608805</v>
       </c>
     </row>
     <row r="554">
@@ -4872,7 +4872,7 @@
         <v>45457</v>
       </c>
       <c r="B554" t="n">
-        <v>122779397.2322895</v>
+        <v>124609550.4706948</v>
       </c>
     </row>
     <row r="555">
@@ -4880,7 +4880,7 @@
         <v>45460</v>
       </c>
       <c r="B555" t="n">
-        <v>122907256.848821</v>
+        <v>124960253.7612523</v>
       </c>
     </row>
     <row r="556">
@@ -4888,7 +4888,7 @@
         <v>45461</v>
       </c>
       <c r="B556" t="n">
-        <v>122922021.6455904</v>
+        <v>125215524.9052087</v>
       </c>
     </row>
     <row r="557">
@@ -4896,7 +4896,7 @@
         <v>45463</v>
       </c>
       <c r="B557" t="n">
-        <v>123028423.6107979</v>
+        <v>125229341.3667748</v>
       </c>
     </row>
     <row r="558">
@@ -4904,7 +4904,7 @@
         <v>45464</v>
       </c>
       <c r="B558" t="n">
-        <v>123118702.7229166</v>
+        <v>125336638.4349088</v>
       </c>
     </row>
     <row r="559">
@@ -4912,7 +4912,7 @@
         <v>45467</v>
       </c>
       <c r="B559" t="n">
-        <v>123200918.7155512</v>
+        <v>125395540.2851062</v>
       </c>
     </row>
     <row r="560">
@@ -4920,7 +4920,7 @@
         <v>45468</v>
       </c>
       <c r="B560" t="n">
-        <v>122988323.4885729</v>
+        <v>124951372.7383879</v>
       </c>
     </row>
     <row r="561">
@@ -4928,7 +4928,7 @@
         <v>45469</v>
       </c>
       <c r="B561" t="n">
-        <v>122791701.7718492</v>
+        <v>124652873.0709143</v>
       </c>
     </row>
     <row r="562">
@@ -4936,7 +4936,7 @@
         <v>45470</v>
       </c>
       <c r="B562" t="n">
-        <v>122914418.2352475</v>
+        <v>124577819.8667386</v>
       </c>
     </row>
     <row r="563">
@@ -4944,7 +4944,7 @@
         <v>45471</v>
       </c>
       <c r="B563" t="n">
-        <v>123182469.0806034</v>
+        <v>124734970.068386</v>
       </c>
     </row>
     <row r="564">
@@ -4952,7 +4952,7 @@
         <v>45474</v>
       </c>
       <c r="B564" t="n">
-        <v>123080207.613076</v>
+        <v>124086763.6248204</v>
       </c>
     </row>
     <row r="565">
@@ -4960,7 +4960,7 @@
         <v>45475</v>
       </c>
       <c r="B565" t="n">
-        <v>123277655.5223857</v>
+        <v>124306208.4679093</v>
       </c>
     </row>
     <row r="566">
@@ -4968,7 +4968,7 @@
         <v>45476</v>
       </c>
       <c r="B566" t="n">
-        <v>123172321.6914504</v>
+        <v>124284412.7344735</v>
       </c>
     </row>
     <row r="567">
@@ -4976,7 +4976,7 @@
         <v>45478</v>
       </c>
       <c r="B567" t="n">
-        <v>123127914.2832289</v>
+        <v>124223775.2187804</v>
       </c>
     </row>
     <row r="568">
@@ -4984,7 +4984,7 @@
         <v>45481</v>
       </c>
       <c r="B568" t="n">
-        <v>123177735.5287654</v>
+        <v>124281291.3252324</v>
       </c>
     </row>
     <row r="569">
@@ -4992,7 +4992,7 @@
         <v>45482</v>
       </c>
       <c r="B569" t="n">
-        <v>123128003.7813381</v>
+        <v>124136051.8082802</v>
       </c>
     </row>
     <row r="570">
@@ -5000,7 +5000,7 @@
         <v>45483</v>
       </c>
       <c r="B570" t="n">
-        <v>123323215.8610356</v>
+        <v>124703330.067606</v>
       </c>
     </row>
     <row r="571">
@@ -5008,7 +5008,7 @@
         <v>45484</v>
       </c>
       <c r="B571" t="n">
-        <v>123681897.5870968</v>
+        <v>125730538.7143703</v>
       </c>
     </row>
     <row r="572">
@@ -5016,7 +5016,7 @@
         <v>45485</v>
       </c>
       <c r="B572" t="n">
-        <v>123836246.1395389</v>
+        <v>126241514.1754365</v>
       </c>
     </row>
     <row r="573">
@@ -5024,7 +5024,7 @@
         <v>45488</v>
       </c>
       <c r="B573" t="n">
-        <v>123901354.195406</v>
+        <v>126459890.0472855</v>
       </c>
     </row>
     <row r="574">
@@ -5032,7 +5032,7 @@
         <v>45489</v>
       </c>
       <c r="B574" t="n">
-        <v>124421882.1553493</v>
+        <v>128059751.8418163</v>
       </c>
     </row>
     <row r="575">
@@ -5040,7 +5040,7 @@
         <v>45490</v>
       </c>
       <c r="B575" t="n">
-        <v>124469840.9484521</v>
+        <v>127635560.1522247</v>
       </c>
     </row>
     <row r="576">
@@ -5048,7 +5048,7 @@
         <v>45491</v>
       </c>
       <c r="B576" t="n">
-        <v>124164337.2647223</v>
+        <v>126771857.8941615</v>
       </c>
     </row>
     <row r="577">
@@ -5056,7 +5056,7 @@
         <v>45492</v>
       </c>
       <c r="B577" t="n">
-        <v>124016204.7346119</v>
+        <v>126093768.0645932</v>
       </c>
     </row>
     <row r="578">
@@ -5064,7 +5064,7 @@
         <v>45495</v>
       </c>
       <c r="B578" t="n">
-        <v>124216126.5185984</v>
+        <v>127146578.1273242</v>
       </c>
     </row>
     <row r="579">
@@ -5072,7 +5072,7 @@
         <v>45496</v>
       </c>
       <c r="B579" t="n">
-        <v>124211119.527301</v>
+        <v>127036414.7600117</v>
       </c>
     </row>
     <row r="580">
@@ -5080,7 +5080,7 @@
         <v>45497</v>
       </c>
       <c r="B580" t="n">
-        <v>124106167.2740237</v>
+        <v>126110061.2946502</v>
       </c>
     </row>
     <row r="581">
@@ -5088,7 +5088,7 @@
         <v>45498</v>
       </c>
       <c r="B581" t="n">
-        <v>124293917.9293751</v>
+        <v>126657368.3692825</v>
       </c>
     </row>
     <row r="582">
@@ -5096,7 +5096,7 @@
         <v>45499</v>
       </c>
       <c r="B582" t="n">
-        <v>124540207.4833364</v>
+        <v>127762729.0240108</v>
       </c>
     </row>
     <row r="583">
@@ -5104,7 +5104,7 @@
         <v>45502</v>
       </c>
       <c r="B583" t="n">
-        <v>124560020.5358889</v>
+        <v>127845388.9689493</v>
       </c>
     </row>
     <row r="584">
@@ -5112,7 +5112,7 @@
         <v>45503</v>
       </c>
       <c r="B584" t="n">
-        <v>124692389.2970136</v>
+        <v>128638265.9793558</v>
       </c>
     </row>
     <row r="585">
@@ -5120,7 +5120,7 @@
         <v>45504</v>
       </c>
       <c r="B585" t="n">
-        <v>124694369.5866919</v>
+        <v>128923110.2974901</v>
       </c>
     </row>
     <row r="586">
@@ -5128,7 +5128,7 @@
         <v>45505</v>
       </c>
       <c r="B586" t="n">
-        <v>124439021.9687022</v>
+        <v>127943032.1956625</v>
       </c>
     </row>
     <row r="587">
@@ -5136,7 +5136,7 @@
         <v>45506</v>
       </c>
       <c r="B587" t="n">
-        <v>124062095.4163193</v>
+        <v>126055213.7782819</v>
       </c>
     </row>
     <row r="588">
@@ -5144,7 +5144,7 @@
         <v>45509</v>
       </c>
       <c r="B588" t="n">
-        <v>123336940.3725652</v>
+        <v>124120898.8653634</v>
       </c>
     </row>
     <row r="589">
@@ -5152,7 +5152,7 @@
         <v>45510</v>
       </c>
       <c r="B589" t="n">
-        <v>123511325.8223789</v>
+        <v>124723747.5512562</v>
       </c>
     </row>
     <row r="590">
@@ -5160,7 +5160,7 @@
         <v>45511</v>
       </c>
       <c r="B590" t="n">
-        <v>123539014.0881334</v>
+        <v>123843603.8618707</v>
       </c>
     </row>
     <row r="591">
@@ -5168,7 +5168,7 @@
         <v>45512</v>
       </c>
       <c r="B591" t="n">
-        <v>123973572.2590875</v>
+        <v>125243239.8341087</v>
       </c>
     </row>
     <row r="592">
@@ -5176,7 +5176,7 @@
         <v>45513</v>
       </c>
       <c r="B592" t="n">
-        <v>123833815.6277184</v>
+        <v>125196869.0903038</v>
       </c>
     </row>
     <row r="593">
@@ -5184,7 +5184,7 @@
         <v>45516</v>
       </c>
       <c r="B593" t="n">
-        <v>123974283.6351184</v>
+        <v>124780352.1605285</v>
       </c>
     </row>
     <row r="594">
@@ -5192,7 +5192,7 @@
         <v>45517</v>
       </c>
       <c r="B594" t="n">
-        <v>124290976.360173</v>
+        <v>125886276.6872684</v>
       </c>
     </row>
     <row r="595">
@@ -5200,7 +5200,7 @@
         <v>45518</v>
       </c>
       <c r="B595" t="n">
-        <v>124443602.5310198</v>
+        <v>126102021.3468485</v>
       </c>
     </row>
     <row r="596">
@@ -5208,7 +5208,7 @@
         <v>45519</v>
       </c>
       <c r="B596" t="n">
-        <v>124869680.1708761</v>
+        <v>127183998.5274986</v>
       </c>
     </row>
     <row r="597">
@@ -5216,7 +5216,7 @@
         <v>45520</v>
       </c>
       <c r="B597" t="n">
-        <v>125012545.698351</v>
+        <v>127351429.6541209</v>
       </c>
     </row>
     <row r="598">
@@ -5224,7 +5224,7 @@
         <v>45523</v>
       </c>
       <c r="B598" t="n">
-        <v>125209029.5133532</v>
+        <v>127948409.8744393</v>
       </c>
     </row>
     <row r="599">
@@ -5232,7 +5232,7 @@
         <v>45524</v>
       </c>
       <c r="B599" t="n">
-        <v>125003691.8681671</v>
+        <v>127403288.0999324</v>
       </c>
     </row>
     <row r="600">
@@ -5240,7 +5240,7 @@
         <v>45525</v>
       </c>
       <c r="B600" t="n">
-        <v>125223797.0345682</v>
+        <v>127942951.3542262</v>
       </c>
     </row>
     <row r="601">
@@ -5248,7 +5248,7 @@
         <v>45526</v>
       </c>
       <c r="B601" t="n">
-        <v>125145546.2563903</v>
+        <v>127742128.2440581</v>
       </c>
     </row>
     <row r="602">
@@ -5256,7 +5256,7 @@
         <v>45527</v>
       </c>
       <c r="B602" t="n">
-        <v>125685510.0432483</v>
+        <v>128757129.5939806</v>
       </c>
     </row>
     <row r="603">
@@ -5264,7 +5264,7 @@
         <v>45530</v>
       </c>
       <c r="B603" t="n">
-        <v>125683008.8751185</v>
+        <v>128490376.7437615</v>
       </c>
     </row>
     <row r="604">
@@ -5272,7 +5272,7 @@
         <v>45531</v>
       </c>
       <c r="B604" t="n">
-        <v>125912427.7305726</v>
+        <v>128754610.0772097</v>
       </c>
     </row>
     <row r="605">
@@ -5280,7 +5280,7 @@
         <v>45532</v>
       </c>
       <c r="B605" t="n">
-        <v>125962859.4456195</v>
+        <v>128716072.3672138</v>
       </c>
     </row>
     <row r="606">
@@ -5288,7 +5288,7 @@
         <v>45533</v>
       </c>
       <c r="B606" t="n">
-        <v>126021832.6707644</v>
+        <v>129445724.9115336</v>
       </c>
     </row>
     <row r="607">
@@ -5296,7 +5296,7 @@
         <v>45534</v>
       </c>
       <c r="B607" t="n">
-        <v>126149170.4755593</v>
+        <v>129992354.1399214</v>
       </c>
     </row>
     <row r="608">
@@ -5304,7 +5304,7 @@
         <v>45538</v>
       </c>
       <c r="B608" t="n">
-        <v>126078217.3077235</v>
+        <v>128979119.3927518</v>
       </c>
     </row>
     <row r="609">
@@ -5312,7 +5312,7 @@
         <v>45539</v>
       </c>
       <c r="B609" t="n">
-        <v>125992966.4514163</v>
+        <v>128781441.8907453</v>
       </c>
     </row>
     <row r="610">
@@ -5320,7 +5320,7 @@
         <v>45540</v>
       </c>
       <c r="B610" t="n">
-        <v>125810939.8308061</v>
+        <v>128249429.062275</v>
       </c>
     </row>
     <row r="611">
@@ -5328,7 +5328,7 @@
         <v>45541</v>
       </c>
       <c r="B611" t="n">
-        <v>125525620.0564917</v>
+        <v>127353266.5596025</v>
       </c>
     </row>
     <row r="612">
@@ -5336,7 +5336,7 @@
         <v>45544</v>
       </c>
       <c r="B612" t="n">
-        <v>125763624.3318776</v>
+        <v>128143770.5577771</v>
       </c>
     </row>
     <row r="613">
@@ -5344,7 +5344,7 @@
         <v>45545</v>
       </c>
       <c r="B613" t="n">
-        <v>125823508.192257</v>
+        <v>128142881.8887108</v>
       </c>
     </row>
     <row r="614">
@@ -5352,7 +5352,7 @@
         <v>45546</v>
       </c>
       <c r="B614" t="n">
-        <v>125879996.7473033</v>
+        <v>128205350.6593959</v>
       </c>
     </row>
     <row r="615">
@@ -5360,7 +5360,7 @@
         <v>45547</v>
       </c>
       <c r="B615" t="n">
-        <v>125940341.2399687</v>
+        <v>128411991.7160207</v>
       </c>
     </row>
     <row r="616">
@@ -5368,7 +5368,7 @@
         <v>45548</v>
       </c>
       <c r="B616" t="n">
-        <v>126095453.6012985</v>
+        <v>129192317.7691142</v>
       </c>
     </row>
     <row r="617">
@@ -5376,7 +5376,7 @@
         <v>45551</v>
       </c>
       <c r="B617" t="n">
-        <v>126251527.1943464</v>
+        <v>129767905.0163802</v>
       </c>
     </row>
     <row r="618">
@@ -5384,7 +5384,7 @@
         <v>45552</v>
       </c>
       <c r="B618" t="n">
-        <v>126158468.6302734</v>
+        <v>130004650.8823171</v>
       </c>
     </row>
     <row r="619">
@@ -5392,7 +5392,7 @@
         <v>45553</v>
       </c>
       <c r="B619" t="n">
-        <v>126128771.8525749</v>
+        <v>129959105.7610478</v>
       </c>
     </row>
     <row r="620">
@@ -5400,7 +5400,7 @@
         <v>45554</v>
       </c>
       <c r="B620" t="n">
-        <v>126348161.4112425</v>
+        <v>130848465.2065596</v>
       </c>
     </row>
     <row r="621">
@@ -5408,7 +5408,7 @@
         <v>45555</v>
       </c>
       <c r="B621" t="n">
-        <v>126325054.1482717</v>
+        <v>130442310.0030393</v>
       </c>
     </row>
     <row r="622">
@@ -5416,7 +5416,7 @@
         <v>45558</v>
       </c>
       <c r="B622" t="n">
-        <v>126367592.9587822</v>
+        <v>130608719.247913</v>
       </c>
     </row>
     <row r="623">
@@ -5424,7 +5424,7 @@
         <v>45559</v>
       </c>
       <c r="B623" t="n">
-        <v>126344652.0335459</v>
+        <v>130621212.1102848</v>
       </c>
     </row>
     <row r="624">
@@ -5432,7 +5432,7 @@
         <v>45560</v>
       </c>
       <c r="B624" t="n">
-        <v>126237735.025999</v>
+        <v>130152428.1904766</v>
       </c>
     </row>
     <row r="625">
@@ -5440,7 +5440,7 @@
         <v>45561</v>
       </c>
       <c r="B625" t="n">
-        <v>126608011.2060992</v>
+        <v>130908234.2361688</v>
       </c>
     </row>
     <row r="626">
@@ -5448,7 +5448,7 @@
         <v>45562</v>
       </c>
       <c r="B626" t="n">
-        <v>126606891.0912802</v>
+        <v>131051778.2303217</v>
       </c>
     </row>
     <row r="627">
@@ -5456,7 +5456,7 @@
         <v>45565</v>
       </c>
       <c r="B627" t="n">
-        <v>126579371.2807083</v>
+        <v>131181366.0630538</v>
       </c>
     </row>
     <row r="628">
@@ -5464,7 +5464,7 @@
         <v>45566</v>
       </c>
       <c r="B628" t="n">
-        <v>126406981.9791347</v>
+        <v>130446007.9637599</v>
       </c>
     </row>
     <row r="629">
@@ -5472,7 +5472,7 @@
         <v>45567</v>
       </c>
       <c r="B629" t="n">
-        <v>126438441.6935861</v>
+        <v>130243507.1377494</v>
       </c>
     </row>
     <row r="630">
@@ -5480,7 +5480,7 @@
         <v>45568</v>
       </c>
       <c r="B630" t="n">
-        <v>126417085.0210911</v>
+        <v>129774765.0874598</v>
       </c>
     </row>
     <row r="631">
@@ -5488,999 +5488,7 @@
         <v>45569</v>
       </c>
       <c r="B631" t="n">
-        <v>126652387.1203581</v>
-      </c>
-    </row>
-    <row r="632">
-      <c r="A632" s="2" t="n">
-        <v>45572</v>
-      </c>
-      <c r="B632" t="n">
-        <v>126471278.5628985</v>
-      </c>
-    </row>
-    <row r="633">
-      <c r="A633" s="2" t="n">
-        <v>45573</v>
-      </c>
-      <c r="B633" t="n">
-        <v>126578588.7794571</v>
-      </c>
-    </row>
-    <row r="634">
-      <c r="A634" s="2" t="n">
-        <v>45574</v>
-      </c>
-      <c r="B634" t="n">
-        <v>126894602.636137</v>
-      </c>
-    </row>
-    <row r="635">
-      <c r="A635" s="2" t="n">
-        <v>45575</v>
-      </c>
-      <c r="B635" t="n">
-        <v>126984112.4439465</v>
-      </c>
-    </row>
-    <row r="636">
-      <c r="A636" s="2" t="n">
-        <v>45576</v>
-      </c>
-      <c r="B636" t="n">
-        <v>127294581.4696236</v>
-      </c>
-    </row>
-    <row r="637">
-      <c r="A637" s="2" t="n">
-        <v>45579</v>
-      </c>
-      <c r="B637" t="n">
-        <v>127474672.6054888</v>
-      </c>
-    </row>
-    <row r="638">
-      <c r="A638" s="2" t="n">
-        <v>45580</v>
-      </c>
-      <c r="B638" t="n">
-        <v>127204711.3832811</v>
-      </c>
-    </row>
-    <row r="639">
-      <c r="A639" s="2" t="n">
-        <v>45581</v>
-      </c>
-      <c r="B639" t="n">
-        <v>127418252.1296936</v>
-      </c>
-    </row>
-    <row r="640">
-      <c r="A640" s="2" t="n">
-        <v>45582</v>
-      </c>
-      <c r="B640" t="n">
-        <v>127362736.9667631</v>
-      </c>
-    </row>
-    <row r="641">
-      <c r="A641" s="2" t="n">
-        <v>45583</v>
-      </c>
-      <c r="B641" t="n">
-        <v>127427511.5843727</v>
-      </c>
-    </row>
-    <row r="642">
-      <c r="A642" s="2" t="n">
-        <v>45586</v>
-      </c>
-      <c r="B642" t="n">
-        <v>127228240.3325913</v>
-      </c>
-    </row>
-    <row r="643">
-      <c r="A643" s="2" t="n">
-        <v>45587</v>
-      </c>
-      <c r="B643" t="n">
-        <v>127061892.316278</v>
-      </c>
-    </row>
-    <row r="644">
-      <c r="A644" s="2" t="n">
-        <v>45588</v>
-      </c>
-      <c r="B644" t="n">
-        <v>126904364.0085938</v>
-      </c>
-    </row>
-    <row r="645">
-      <c r="A645" s="2" t="n">
-        <v>45589</v>
-      </c>
-      <c r="B645" t="n">
-        <v>127298493.9760463</v>
-      </c>
-    </row>
-    <row r="646">
-      <c r="A646" s="2" t="n">
-        <v>45590</v>
-      </c>
-      <c r="B646" t="n">
-        <v>127231214.2768344</v>
-      </c>
-    </row>
-    <row r="647">
-      <c r="A647" s="2" t="n">
-        <v>45593</v>
-      </c>
-      <c r="B647" t="n">
-        <v>127180794.9796033</v>
-      </c>
-    </row>
-    <row r="648">
-      <c r="A648" s="2" t="n">
-        <v>45594</v>
-      </c>
-      <c r="B648" t="n">
-        <v>127223314.0940723</v>
-      </c>
-    </row>
-    <row r="649">
-      <c r="A649" s="2" t="n">
-        <v>45595</v>
-      </c>
-      <c r="B649" t="n">
-        <v>127044238.1143149</v>
-      </c>
-    </row>
-    <row r="650">
-      <c r="A650" s="2" t="n">
-        <v>45596</v>
-      </c>
-      <c r="B650" t="n">
-        <v>126660560.495362</v>
-      </c>
-    </row>
-    <row r="651">
-      <c r="A651" s="2" t="n">
-        <v>45597</v>
-      </c>
-      <c r="B651" t="n">
-        <v>127017903.4870481</v>
-      </c>
-    </row>
-    <row r="652">
-      <c r="A652" s="2" t="n">
-        <v>45600</v>
-      </c>
-      <c r="B652" t="n">
-        <v>127043992.7991968</v>
-      </c>
-    </row>
-    <row r="653">
-      <c r="A653" s="2" t="n">
-        <v>45601</v>
-      </c>
-      <c r="B653" t="n">
-        <v>127379700.7825753</v>
-      </c>
-    </row>
-    <row r="654">
-      <c r="A654" s="2" t="n">
-        <v>45602</v>
-      </c>
-      <c r="B654" t="n">
-        <v>128443616.6455515</v>
-      </c>
-    </row>
-    <row r="655">
-      <c r="A655" s="2" t="n">
-        <v>45603</v>
-      </c>
-      <c r="B655" t="n">
-        <v>128387288.4956447</v>
-      </c>
-    </row>
-    <row r="656">
-      <c r="A656" s="2" t="n">
-        <v>45604</v>
-      </c>
-      <c r="B656" t="n">
-        <v>128465903.4353905</v>
-      </c>
-    </row>
-    <row r="657">
-      <c r="A657" s="2" t="n">
-        <v>45607</v>
-      </c>
-      <c r="B657" t="n">
-        <v>128754998.9274295</v>
-      </c>
-    </row>
-    <row r="658">
-      <c r="A658" s="2" t="n">
-        <v>45608</v>
-      </c>
-      <c r="B658" t="n">
-        <v>128283383.3951437</v>
-      </c>
-    </row>
-    <row r="659">
-      <c r="A659" s="2" t="n">
-        <v>45609</v>
-      </c>
-      <c r="B659" t="n">
-        <v>127868608.9178253</v>
-      </c>
-    </row>
-    <row r="660">
-      <c r="A660" s="2" t="n">
-        <v>45610</v>
-      </c>
-      <c r="B660" t="n">
-        <v>127296546.7483386</v>
-      </c>
-    </row>
-    <row r="661">
-      <c r="A661" s="2" t="n">
-        <v>45611</v>
-      </c>
-      <c r="B661" t="n">
-        <v>126793090.618637</v>
-      </c>
-    </row>
-    <row r="662">
-      <c r="A662" s="2" t="n">
-        <v>45614</v>
-      </c>
-      <c r="B662" t="n">
-        <v>126901731.0186894</v>
-      </c>
-    </row>
-    <row r="663">
-      <c r="A663" s="2" t="n">
-        <v>45615</v>
-      </c>
-      <c r="B663" t="n">
-        <v>126685479.0017699</v>
-      </c>
-    </row>
-    <row r="664">
-      <c r="A664" s="2" t="n">
-        <v>45616</v>
-      </c>
-      <c r="B664" t="n">
-        <v>126868493.5198775</v>
-      </c>
-    </row>
-    <row r="665">
-      <c r="A665" s="2" t="n">
-        <v>45617</v>
-      </c>
-      <c r="B665" t="n">
-        <v>127598313.5973679</v>
-      </c>
-    </row>
-    <row r="666">
-      <c r="A666" s="2" t="n">
-        <v>45618</v>
-      </c>
-      <c r="B666" t="n">
-        <v>128060596.0579527</v>
-      </c>
-    </row>
-    <row r="667">
-      <c r="A667" s="2" t="n">
-        <v>45621</v>
-      </c>
-      <c r="B667" t="n">
-        <v>128732737.0507476</v>
-      </c>
-    </row>
-    <row r="668">
-      <c r="A668" s="2" t="n">
-        <v>45622</v>
-      </c>
-      <c r="B668" t="n">
-        <v>128472837.6189992</v>
-      </c>
-    </row>
-    <row r="669">
-      <c r="A669" s="2" t="n">
-        <v>45623</v>
-      </c>
-      <c r="B669" t="n">
-        <v>128273251.0697788</v>
-      </c>
-    </row>
-    <row r="670">
-      <c r="A670" s="2" t="n">
-        <v>45625</v>
-      </c>
-      <c r="B670" t="n">
-        <v>128348000.5750128</v>
-      </c>
-    </row>
-    <row r="671">
-      <c r="A671" s="2" t="n">
-        <v>45628</v>
-      </c>
-      <c r="B671" t="n">
-        <v>128162925.2576773</v>
-      </c>
-    </row>
-    <row r="672">
-      <c r="A672" s="2" t="n">
-        <v>45629</v>
-      </c>
-      <c r="B672" t="n">
-        <v>127857400.4519753</v>
-      </c>
-    </row>
-    <row r="673">
-      <c r="A673" s="2" t="n">
-        <v>45630</v>
-      </c>
-      <c r="B673" t="n">
-        <v>127724684.4574467</v>
-      </c>
-    </row>
-    <row r="674">
-      <c r="A674" s="2" t="n">
-        <v>45631</v>
-      </c>
-      <c r="B674" t="n">
-        <v>127233567.004293</v>
-      </c>
-    </row>
-    <row r="675">
-      <c r="A675" s="2" t="n">
-        <v>45632</v>
-      </c>
-      <c r="B675" t="n">
-        <v>127113048.9311597</v>
-      </c>
-    </row>
-    <row r="676">
-      <c r="A676" s="2" t="n">
-        <v>45635</v>
-      </c>
-      <c r="B676" t="n">
-        <v>127146182.0911878</v>
-      </c>
-    </row>
-    <row r="677">
-      <c r="A677" s="2" t="n">
-        <v>45636</v>
-      </c>
-      <c r="B677" t="n">
-        <v>126708010.9639348</v>
-      </c>
-    </row>
-    <row r="678">
-      <c r="A678" s="2" t="n">
-        <v>45637</v>
-      </c>
-      <c r="B678" t="n">
-        <v>126689857.8962935</v>
-      </c>
-    </row>
-    <row r="679">
-      <c r="A679" s="2" t="n">
-        <v>45638</v>
-      </c>
-      <c r="B679" t="n">
-        <v>126394737.8795113</v>
-      </c>
-    </row>
-    <row r="680">
-      <c r="A680" s="2" t="n">
-        <v>45639</v>
-      </c>
-      <c r="B680" t="n">
-        <v>126234878.9868313</v>
-      </c>
-    </row>
-    <row r="681">
-      <c r="A681" s="2" t="n">
-        <v>45642</v>
-      </c>
-      <c r="B681" t="n">
-        <v>126038643.9842024</v>
-      </c>
-    </row>
-    <row r="682">
-      <c r="A682" s="2" t="n">
-        <v>45643</v>
-      </c>
-      <c r="B682" t="n">
-        <v>125574652.0515535</v>
-      </c>
-    </row>
-    <row r="683">
-      <c r="A683" s="2" t="n">
-        <v>45644</v>
-      </c>
-      <c r="B683" t="n">
-        <v>124313457.962906</v>
-      </c>
-    </row>
-    <row r="684">
-      <c r="A684" s="2" t="n">
-        <v>45645</v>
-      </c>
-      <c r="B684" t="n">
-        <v>124071992.4733584</v>
-      </c>
-    </row>
-    <row r="685">
-      <c r="A685" s="2" t="n">
-        <v>45646</v>
-      </c>
-      <c r="B685" t="n">
-        <v>124721649.6603511</v>
-      </c>
-    </row>
-    <row r="686">
-      <c r="A686" s="2" t="n">
-        <v>45649</v>
-      </c>
-      <c r="B686" t="n">
-        <v>124852936.193864</v>
-      </c>
-    </row>
-    <row r="687">
-      <c r="A687" s="2" t="n">
-        <v>45650</v>
-      </c>
-      <c r="B687" t="n">
-        <v>125134268.4643527</v>
-      </c>
-    </row>
-    <row r="688">
-      <c r="A688" s="2" t="n">
-        <v>45652</v>
-      </c>
-      <c r="B688" t="n">
-        <v>125163790.8825706</v>
-      </c>
-    </row>
-    <row r="689">
-      <c r="A689" s="2" t="n">
-        <v>45653</v>
-      </c>
-      <c r="B689" t="n">
-        <v>124787775.6581129</v>
-      </c>
-    </row>
-    <row r="690">
-      <c r="A690" s="2" t="n">
-        <v>45656</v>
-      </c>
-      <c r="B690" t="n">
-        <v>124187485.761276</v>
-      </c>
-    </row>
-    <row r="691">
-      <c r="A691" s="2" t="n">
-        <v>45657</v>
-      </c>
-      <c r="B691" t="n">
-        <v>124179061.5123999</v>
-      </c>
-    </row>
-    <row r="692">
-      <c r="A692" s="2" t="n">
-        <v>45659</v>
-      </c>
-      <c r="B692" t="n">
-        <v>124012648.8231416</v>
-      </c>
-    </row>
-    <row r="693">
-      <c r="A693" s="2" t="n">
-        <v>45660</v>
-      </c>
-      <c r="B693" t="n">
-        <v>124655207.4552044</v>
-      </c>
-    </row>
-    <row r="694">
-      <c r="A694" s="2" t="n">
-        <v>45663</v>
-      </c>
-      <c r="B694" t="n">
-        <v>124967447.8467496</v>
-      </c>
-    </row>
-    <row r="695">
-      <c r="A695" s="2" t="n">
-        <v>45664</v>
-      </c>
-      <c r="B695" t="n">
-        <v>124862376.2831832</v>
-      </c>
-    </row>
-    <row r="696">
-      <c r="A696" s="2" t="n">
-        <v>45665</v>
-      </c>
-      <c r="B696" t="n">
-        <v>124729598.8584236</v>
-      </c>
-    </row>
-    <row r="697">
-      <c r="A697" s="2" t="n">
-        <v>45667</v>
-      </c>
-      <c r="B697" t="n">
-        <v>124104386.8617637</v>
-      </c>
-    </row>
-    <row r="698">
-      <c r="A698" s="2" t="n">
-        <v>45670</v>
-      </c>
-      <c r="B698" t="n">
-        <v>124368015.7413287</v>
-      </c>
-    </row>
-    <row r="699">
-      <c r="A699" s="2" t="n">
-        <v>45671</v>
-      </c>
-      <c r="B699" t="n">
-        <v>124589551.393788</v>
-      </c>
-    </row>
-    <row r="700">
-      <c r="A700" s="2" t="n">
-        <v>45672</v>
-      </c>
-      <c r="B700" t="n">
-        <v>124903494.526057</v>
-      </c>
-    </row>
-    <row r="701">
-      <c r="A701" s="2" t="n">
-        <v>45673</v>
-      </c>
-      <c r="B701" t="n">
-        <v>125033490.3216204</v>
-      </c>
-    </row>
-    <row r="702">
-      <c r="A702" s="2" t="n">
-        <v>45674</v>
-      </c>
-      <c r="B702" t="n">
-        <v>125220673.7369186</v>
-      </c>
-    </row>
-    <row r="703">
-      <c r="A703" s="2" t="n">
-        <v>45678</v>
-      </c>
-      <c r="B703" t="n">
-        <v>125767596.8155057</v>
-      </c>
-    </row>
-    <row r="704">
-      <c r="A704" s="2" t="n">
-        <v>45679</v>
-      </c>
-      <c r="B704" t="n">
-        <v>125753917.1821233</v>
-      </c>
-    </row>
-    <row r="705">
-      <c r="A705" s="2" t="n">
-        <v>45680</v>
-      </c>
-      <c r="B705" t="n">
-        <v>125861313.5566902</v>
-      </c>
-    </row>
-    <row r="706">
-      <c r="A706" s="2" t="n">
-        <v>45681</v>
-      </c>
-      <c r="B706" t="n">
-        <v>125637123.0335429</v>
-      </c>
-    </row>
-    <row r="707">
-      <c r="A707" s="2" t="n">
-        <v>45684</v>
-      </c>
-      <c r="B707" t="n">
-        <v>125757152.5046858</v>
-      </c>
-    </row>
-    <row r="708">
-      <c r="A708" s="2" t="n">
-        <v>45685</v>
-      </c>
-      <c r="B708" t="n">
-        <v>125407972.6423186</v>
-      </c>
-    </row>
-    <row r="709">
-      <c r="A709" s="2" t="n">
-        <v>45686</v>
-      </c>
-      <c r="B709" t="n">
-        <v>125052743.6684104</v>
-      </c>
-    </row>
-    <row r="710">
-      <c r="A710" s="2" t="n">
-        <v>45687</v>
-      </c>
-      <c r="B710" t="n">
-        <v>125388181.8390239</v>
-      </c>
-    </row>
-    <row r="711">
-      <c r="A711" s="2" t="n">
-        <v>45688</v>
-      </c>
-      <c r="B711" t="n">
-        <v>125044333.0516572</v>
-      </c>
-    </row>
-    <row r="712">
-      <c r="A712" s="2" t="n">
-        <v>45691</v>
-      </c>
-      <c r="B712" t="n">
-        <v>124694683.732379</v>
-      </c>
-    </row>
-    <row r="713">
-      <c r="A713" s="2" t="n">
-        <v>45692</v>
-      </c>
-      <c r="B713" t="n">
-        <v>124698104.3084544</v>
-      </c>
-    </row>
-    <row r="714">
-      <c r="A714" s="2" t="n">
-        <v>45693</v>
-      </c>
-      <c r="B714" t="n">
-        <v>125131910.175263</v>
-      </c>
-    </row>
-    <row r="715">
-      <c r="A715" s="2" t="n">
-        <v>45694</v>
-      </c>
-      <c r="B715" t="n">
-        <v>124472938.4967287</v>
-      </c>
-    </row>
-    <row r="716">
-      <c r="A716" s="2" t="n">
-        <v>45695</v>
-      </c>
-      <c r="B716" t="n">
-        <v>124186857.1557092</v>
-      </c>
-    </row>
-    <row r="717">
-      <c r="A717" s="2" t="n">
-        <v>45698</v>
-      </c>
-      <c r="B717" t="n">
-        <v>124436135.4599493</v>
-      </c>
-    </row>
-    <row r="718">
-      <c r="A718" s="2" t="n">
-        <v>45699</v>
-      </c>
-      <c r="B718" t="n">
-        <v>124295484.0824353</v>
-      </c>
-    </row>
-    <row r="719">
-      <c r="A719" s="2" t="n">
-        <v>45700</v>
-      </c>
-      <c r="B719" t="n">
-        <v>124219662.9002707</v>
-      </c>
-    </row>
-    <row r="720">
-      <c r="A720" s="2" t="n">
-        <v>45701</v>
-      </c>
-      <c r="B720" t="n">
-        <v>124659256.5593501</v>
-      </c>
-    </row>
-    <row r="721">
-      <c r="A721" s="2" t="n">
-        <v>45702</v>
-      </c>
-      <c r="B721" t="n">
-        <v>124514766.7482816</v>
-      </c>
-    </row>
-    <row r="722">
-      <c r="A722" s="2" t="n">
-        <v>45706</v>
-      </c>
-      <c r="B722" t="n">
-        <v>125010426.0934157</v>
-      </c>
-    </row>
-    <row r="723">
-      <c r="A723" s="2" t="n">
-        <v>45707</v>
-      </c>
-      <c r="B723" t="n">
-        <v>125164187.0819344</v>
-      </c>
-    </row>
-    <row r="724">
-      <c r="A724" s="2" t="n">
-        <v>45708</v>
-      </c>
-      <c r="B724" t="n">
-        <v>125092419.8785417</v>
-      </c>
-    </row>
-    <row r="725">
-      <c r="A725" s="2" t="n">
-        <v>45709</v>
-      </c>
-      <c r="B725" t="n">
-        <v>124171484.063164</v>
-      </c>
-    </row>
-    <row r="726">
-      <c r="A726" s="2" t="n">
-        <v>45712</v>
-      </c>
-      <c r="B726" t="n">
-        <v>124173417.4005123</v>
-      </c>
-    </row>
-    <row r="727">
-      <c r="A727" s="2" t="n">
-        <v>45713</v>
-      </c>
-      <c r="B727" t="n">
-        <v>124180904.8018975</v>
-      </c>
-    </row>
-    <row r="728">
-      <c r="A728" s="2" t="n">
-        <v>45714</v>
-      </c>
-      <c r="B728" t="n">
-        <v>123838852.0539777</v>
-      </c>
-    </row>
-    <row r="729">
-      <c r="A729" s="2" t="n">
-        <v>45715</v>
-      </c>
-      <c r="B729" t="n">
-        <v>123667732.1581409</v>
-      </c>
-    </row>
-    <row r="730">
-      <c r="A730" s="2" t="n">
-        <v>45716</v>
-      </c>
-      <c r="B730" t="n">
-        <v>124124456.6333555</v>
-      </c>
-    </row>
-    <row r="731">
-      <c r="A731" s="2" t="n">
-        <v>45719</v>
-      </c>
-      <c r="B731" t="n">
-        <v>123528581.0198956</v>
-      </c>
-    </row>
-    <row r="732">
-      <c r="A732" s="2" t="n">
-        <v>45720</v>
-      </c>
-      <c r="B732" t="n">
-        <v>122628023.1724003</v>
-      </c>
-    </row>
-    <row r="733">
-      <c r="A733" s="2" t="n">
-        <v>45721</v>
-      </c>
-      <c r="B733" t="n">
-        <v>123087925.1340333</v>
-      </c>
-    </row>
-    <row r="734">
-      <c r="A734" s="2" t="n">
-        <v>45722</v>
-      </c>
-      <c r="B734" t="n">
-        <v>122810243.551944</v>
-      </c>
-    </row>
-    <row r="735">
-      <c r="A735" s="2" t="n">
-        <v>45723</v>
-      </c>
-      <c r="B735" t="n">
-        <v>123101796.2741102</v>
-      </c>
-    </row>
-    <row r="736">
-      <c r="A736" s="2" t="n">
-        <v>45726</v>
-      </c>
-      <c r="B736" t="n">
-        <v>122086571.6431846</v>
-      </c>
-    </row>
-    <row r="737">
-      <c r="A737" s="2" t="n">
-        <v>45727</v>
-      </c>
-      <c r="B737" t="n">
-        <v>121355695.5995866</v>
-      </c>
-    </row>
-    <row r="738">
-      <c r="A738" s="2" t="n">
-        <v>45728</v>
-      </c>
-      <c r="B738" t="n">
-        <v>121061672.3263779</v>
-      </c>
-    </row>
-    <row r="739">
-      <c r="A739" s="2" t="n">
-        <v>45729</v>
-      </c>
-      <c r="B739" t="n">
-        <v>120581686.3396706</v>
-      </c>
-    </row>
-    <row r="740">
-      <c r="A740" s="2" t="n">
-        <v>45730</v>
-      </c>
-      <c r="B740" t="n">
-        <v>121323576.4027829</v>
-      </c>
-    </row>
-    <row r="741">
-      <c r="A741" s="2" t="n">
-        <v>45733</v>
-      </c>
-      <c r="B741" t="n">
-        <v>121950154.2843191</v>
-      </c>
-    </row>
-    <row r="742">
-      <c r="A742" s="2" t="n">
-        <v>45734</v>
-      </c>
-      <c r="B742" t="n">
-        <v>121848852.8261755</v>
-      </c>
-    </row>
-    <row r="743">
-      <c r="A743" s="2" t="n">
-        <v>45735</v>
-      </c>
-      <c r="B743" t="n">
-        <v>122031041.8068759</v>
-      </c>
-    </row>
-    <row r="744">
-      <c r="A744" s="2" t="n">
-        <v>45736</v>
-      </c>
-      <c r="B744" t="n">
-        <v>121818045.5117287</v>
-      </c>
-    </row>
-    <row r="745">
-      <c r="A745" s="2" t="n">
-        <v>45737</v>
-      </c>
-      <c r="B745" t="n">
-        <v>121651642.692628</v>
-      </c>
-    </row>
-    <row r="746">
-      <c r="A746" s="2" t="n">
-        <v>45740</v>
-      </c>
-      <c r="B746" t="n">
-        <v>122405204.4727329</v>
-      </c>
-    </row>
-    <row r="747">
-      <c r="A747" s="2" t="n">
-        <v>45741</v>
-      </c>
-      <c r="B747" t="n">
-        <v>122216054.8869563</v>
-      </c>
-    </row>
-    <row r="748">
-      <c r="A748" s="2" t="n">
-        <v>45742</v>
-      </c>
-      <c r="B748" t="n">
-        <v>122219296.4042387</v>
-      </c>
-    </row>
-    <row r="749">
-      <c r="A749" s="2" t="n">
-        <v>45743</v>
-      </c>
-      <c r="B749" t="n">
-        <v>122071079.3389838</v>
-      </c>
-    </row>
-    <row r="750">
-      <c r="A750" s="2" t="n">
-        <v>45744</v>
-      </c>
-      <c r="B750" t="n">
-        <v>121346791.0493141</v>
-      </c>
-    </row>
-    <row r="751">
-      <c r="A751" s="2" t="n">
-        <v>45747</v>
-      </c>
-      <c r="B751" t="n">
-        <v>121644239.3039879</v>
-      </c>
-    </row>
-    <row r="752">
-      <c r="A752" s="2" t="n">
-        <v>45748</v>
-      </c>
-      <c r="B752" t="n">
-        <v>121370931.2011029</v>
-      </c>
-    </row>
-    <row r="753">
-      <c r="A753" s="2" t="n">
-        <v>45749</v>
-      </c>
-      <c r="B753" t="n">
-        <v>121777867.6680762</v>
-      </c>
-    </row>
-    <row r="754">
-      <c r="A754" s="2" t="n">
-        <v>45750</v>
-      </c>
-      <c r="B754" t="n">
-        <v>119582765.4741522</v>
-      </c>
-    </row>
-    <row r="755">
-      <c r="A755" s="2" t="n">
-        <v>45751</v>
-      </c>
-      <c r="B755" t="n">
-        <v>117194282.2933334</v>
+        <v>130195297.0143226</v>
       </c>
     </row>
   </sheetData>
